--- a/report_template/daily_report.xlsx
+++ b/report_template/daily_report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t>監測日報表</t>
   </si>
@@ -24,13 +24,13 @@
     <t>測站名稱：麥寮環境監測中心</t>
   </si>
   <si>
-    <t>印表日期：20150720</t>
+    <t>印表日期：20150515</t>
   </si>
   <si>
     <t>監測點  ：大城站</t>
   </si>
   <si>
-    <t>資料日期：20150701</t>
+    <t>資料日期：20150501</t>
   </si>
   <si>
     <t>小時值</t>
@@ -169,9 +169,6 @@
   <si>
     <t>不可抗力</t>
   </si>
-  <si>
-    <t>測試站</t>
-  </si>
 </sst>
 </file>
 
@@ -221,25 +218,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFA500"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -322,16 +319,10 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -343,16 +334,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -459,76 +450,76 @@
                 <c:formatCode>##0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>3.32</c:v>
+                  <c:v>1.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.37</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.67</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6</c:v>
+                  <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.32</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.46</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.51</c:v>
+                  <c:v>1.44</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1100000000000003</c:v>
+                  <c:v>1.1599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.24</c:v>
+                  <c:v>1.81</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.49</c:v>
+                  <c:v>2.11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.86</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.68</c:v>
+                  <c:v>2.95</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.93</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.67</c:v>
+                  <c:v>4.2699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.13</c:v>
+                  <c:v>4.6900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.31</c:v>
+                  <c:v>4.6399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.29</c:v>
+                  <c:v>3.31</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.12</c:v>
+                  <c:v>2.2400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1900000000000004</c:v>
+                  <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.85</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.2699999999999996</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.68</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.17</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.8099999999999996</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -545,8 +536,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71225344"/>
-        <c:axId val="71226880"/>
+        <c:axId val="60899328"/>
+        <c:axId val="60900864"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -582,76 +573,76 @@
                 <c:formatCode>##0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>178.38</c:v>
+                  <c:v>309.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174.21</c:v>
+                  <c:v>302.95999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174.12</c:v>
+                  <c:v>241.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>176.72</c:v>
+                  <c:v>277.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>177.78</c:v>
+                  <c:v>286.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180.48</c:v>
+                  <c:v>293.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>181.04</c:v>
+                  <c:v>296.70999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>186.04</c:v>
+                  <c:v>284.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>199.34</c:v>
+                  <c:v>299.81</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>206.78</c:v>
+                  <c:v>309.67</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>212.63</c:v>
+                  <c:v>320.97000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>217.71</c:v>
+                  <c:v>322.41000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>214.01</c:v>
+                  <c:v>331.33</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>218.1</c:v>
+                  <c:v>325.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>216.49</c:v>
+                  <c:v>336.85</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>209.2</c:v>
+                  <c:v>341.95</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>208.85</c:v>
+                  <c:v>358.01</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>206.43</c:v>
+                  <c:v>8.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>196.69</c:v>
+                  <c:v>26.12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>176.07</c:v>
+                  <c:v>11.44</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>183.54</c:v>
+                  <c:v>156.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>186.87</c:v>
+                  <c:v>207.22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>187.69</c:v>
+                  <c:v>156.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>183.76</c:v>
+                  <c:v>161.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,11 +657,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="76275712"/>
-        <c:axId val="76264576"/>
+        <c:axId val="80496128"/>
+        <c:axId val="80493184"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="71225344"/>
+        <c:axId val="60899328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -698,7 +689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71226880"/>
+        <c:crossAx val="60900864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -706,7 +697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71226880"/>
+        <c:axId val="60900864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,12 +727,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71225344"/>
+        <c:crossAx val="60899328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76264576"/>
+        <c:axId val="80493184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -772,13 +763,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76275712"/>
+        <c:crossAx val="80496128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="90"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76275712"/>
+        <c:axId val="80496128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -787,7 +778,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76264576"/>
+        <c:crossAx val="80493184"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -867,6 +858,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -913,76 +905,76 @@
                 <c:formatCode>##0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.51</c:v>
+                  <c:v>3.58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.46</c:v>
+                  <c:v>2.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2400000000000002</c:v>
+                  <c:v>2.0699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2400000000000002</c:v>
+                  <c:v>2.3199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.02</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.97</c:v>
+                  <c:v>3.34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.94</c:v>
+                  <c:v>2.79</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>2.72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.75</c:v>
+                  <c:v>4.42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.58</c:v>
+                  <c:v>3.67</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.65</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.47</c:v>
+                  <c:v>4.34</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.67</c:v>
+                  <c:v>4.1399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.69</c:v>
+                  <c:v>3.15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.82</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.72</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>105.09</c:v>
+                  <c:v>2.73</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.63</c:v>
+                  <c:v>2.71</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.17</c:v>
+                  <c:v>2.79</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>2.79</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.45</c:v>
+                  <c:v>3.12</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.6</c:v>
+                  <c:v>3.14</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.75</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.6</c:v>
+                  <c:v>2.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1107,8 +1099,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71234688"/>
-        <c:axId val="71236224"/>
+        <c:axId val="59776384"/>
+        <c:axId val="60907904"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1144,76 +1136,76 @@
                 <c:formatCode>##0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>178.38</c:v>
+                  <c:v>309.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174.21</c:v>
+                  <c:v>302.95999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174.12</c:v>
+                  <c:v>241.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>176.72</c:v>
+                  <c:v>277.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>177.78</c:v>
+                  <c:v>286.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180.48</c:v>
+                  <c:v>293.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>181.04</c:v>
+                  <c:v>296.70999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>186.04</c:v>
+                  <c:v>284.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>199.34</c:v>
+                  <c:v>299.81</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>206.78</c:v>
+                  <c:v>309.67</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>212.63</c:v>
+                  <c:v>320.97000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>217.71</c:v>
+                  <c:v>322.41000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>214.01</c:v>
+                  <c:v>331.33</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>218.1</c:v>
+                  <c:v>325.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>216.49</c:v>
+                  <c:v>336.85</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>209.2</c:v>
+                  <c:v>341.95</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>208.85</c:v>
+                  <c:v>358.01</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>206.43</c:v>
+                  <c:v>8.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>196.69</c:v>
+                  <c:v>26.12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>176.07</c:v>
+                  <c:v>11.44</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>183.54</c:v>
+                  <c:v>156.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>186.87</c:v>
+                  <c:v>207.22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>187.69</c:v>
+                  <c:v>156.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>183.76</c:v>
+                  <c:v>161.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1228,11 +1220,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="84085376"/>
-        <c:axId val="84082688"/>
+        <c:axId val="83136896"/>
+        <c:axId val="83133952"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="71234688"/>
+        <c:axId val="59776384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,12 +1246,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71236224"/>
+        <c:crossAx val="60907904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1267,7 +1260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71236224"/>
+        <c:axId val="60907904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,18 +1283,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71234688"/>
+        <c:crossAx val="59776384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84082688"/>
+        <c:axId val="83133952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -1332,13 +1326,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84085376"/>
+        <c:crossAx val="83136896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="90"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84085376"/>
+        <c:axId val="83136896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,12 +1341,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84082688"/>
+        <c:crossAx val="83133952"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1473,76 +1468,76 @@
                 <c:formatCode>##0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.32</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.32</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.58</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.3</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.35</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.32</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.31</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,8 +1662,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71279744"/>
-        <c:axId val="71281280"/>
+        <c:axId val="59797504"/>
+        <c:axId val="59799424"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1704,76 +1699,76 @@
                 <c:formatCode>##0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>178.38</c:v>
+                  <c:v>309.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174.21</c:v>
+                  <c:v>302.95999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174.12</c:v>
+                  <c:v>241.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>176.72</c:v>
+                  <c:v>277.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>177.78</c:v>
+                  <c:v>286.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180.48</c:v>
+                  <c:v>293.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>181.04</c:v>
+                  <c:v>296.70999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>186.04</c:v>
+                  <c:v>284.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>199.34</c:v>
+                  <c:v>299.81</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>206.78</c:v>
+                  <c:v>309.67</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>212.63</c:v>
+                  <c:v>320.97000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>217.71</c:v>
+                  <c:v>322.41000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>214.01</c:v>
+                  <c:v>331.33</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>218.1</c:v>
+                  <c:v>325.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>216.49</c:v>
+                  <c:v>336.85</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>209.2</c:v>
+                  <c:v>341.95</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>208.85</c:v>
+                  <c:v>358.01</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>206.43</c:v>
+                  <c:v>8.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>196.69</c:v>
+                  <c:v>26.12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>176.07</c:v>
+                  <c:v>11.44</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>183.54</c:v>
+                  <c:v>156.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>186.87</c:v>
+                  <c:v>207.22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>187.69</c:v>
+                  <c:v>156.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>183.76</c:v>
+                  <c:v>161.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1788,11 +1783,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="84230144"/>
-        <c:axId val="58160640"/>
+        <c:axId val="83294464"/>
+        <c:axId val="83297408"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="71279744"/>
+        <c:axId val="59797504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,7 +1815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71281280"/>
+        <c:crossAx val="59799424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1828,7 +1823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71281280"/>
+        <c:axId val="59799424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,12 +1853,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71279744"/>
+        <c:crossAx val="59797504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58160640"/>
+        <c:axId val="83297408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -1894,13 +1889,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84230144"/>
+        <c:crossAx val="83294464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="90"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84230144"/>
+        <c:axId val="83294464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1909,7 +1904,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58160640"/>
+        <c:crossAx val="83297408"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -2036,76 +2031,76 @@
                 <c:formatCode>##0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>4.78</c:v>
+                  <c:v>5.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.52</c:v>
+                  <c:v>1.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.81</c:v>
+                  <c:v>1.43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.48</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.95</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.45</c:v>
+                  <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.73</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.69</c:v>
+                  <c:v>1.57</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.15</c:v>
+                  <c:v>4.83</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.48</c:v>
+                  <c:v>2.86</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.97</c:v>
+                  <c:v>1.64</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.58</c:v>
+                  <c:v>1.98</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.16</c:v>
+                  <c:v>1.19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0199999999999996</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.7</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.25</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.53</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.26</c:v>
+                  <c:v>1.53</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.4300000000000002</c:v>
+                  <c:v>3.52</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.71</c:v>
+                  <c:v>3.44</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.53</c:v>
+                  <c:v>7.68</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.04</c:v>
+                  <c:v>6.68</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.44</c:v>
+                  <c:v>5.84</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.37</c:v>
+                  <c:v>5.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2230,8 +2225,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71331840"/>
-        <c:axId val="71333376"/>
+        <c:axId val="60945920"/>
+        <c:axId val="60947456"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2267,76 +2262,76 @@
                 <c:formatCode>##0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>178.38</c:v>
+                  <c:v>309.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174.21</c:v>
+                  <c:v>302.95999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174.12</c:v>
+                  <c:v>241.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>176.72</c:v>
+                  <c:v>277.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>177.78</c:v>
+                  <c:v>286.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180.48</c:v>
+                  <c:v>293.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>181.04</c:v>
+                  <c:v>296.70999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>186.04</c:v>
+                  <c:v>284.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>199.34</c:v>
+                  <c:v>299.81</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>206.78</c:v>
+                  <c:v>309.67</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>212.63</c:v>
+                  <c:v>320.97000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>217.71</c:v>
+                  <c:v>322.41000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>214.01</c:v>
+                  <c:v>331.33</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>218.1</c:v>
+                  <c:v>325.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>216.49</c:v>
+                  <c:v>336.85</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>209.2</c:v>
+                  <c:v>341.95</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>208.85</c:v>
+                  <c:v>358.01</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>206.43</c:v>
+                  <c:v>8.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>196.69</c:v>
+                  <c:v>26.12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>176.07</c:v>
+                  <c:v>11.44</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>183.54</c:v>
+                  <c:v>156.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>186.87</c:v>
+                  <c:v>207.22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>187.69</c:v>
+                  <c:v>156.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>183.76</c:v>
+                  <c:v>161.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2351,11 +2346,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="70672768"/>
-        <c:axId val="70671360"/>
+        <c:axId val="83464192"/>
+        <c:axId val="83461248"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="71331840"/>
+        <c:axId val="60945920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,7 +2378,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71333376"/>
+        <c:crossAx val="60947456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2391,7 +2386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71333376"/>
+        <c:axId val="60947456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,12 +2416,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71331840"/>
+        <c:crossAx val="60945920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70671360"/>
+        <c:axId val="83461248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -2457,13 +2452,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70672768"/>
+        <c:crossAx val="83464192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="90"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70672768"/>
+        <c:axId val="83464192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2472,7 +2467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70671360"/>
+        <c:crossAx val="83461248"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -2598,76 +2593,76 @@
                 <c:formatCode>##0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>16.170000000000002</c:v>
+                  <c:v>43.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.57</c:v>
+                  <c:v>49.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.36</c:v>
+                  <c:v>44.37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.21</c:v>
+                  <c:v>45.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.85</c:v>
+                  <c:v>48.72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.17</c:v>
+                  <c:v>46.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.42</c:v>
+                  <c:v>48.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.239999999999998</c:v>
+                  <c:v>51.12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.98</c:v>
+                  <c:v>48.09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.42</c:v>
+                  <c:v>52.87</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.86</c:v>
+                  <c:v>55.37</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27.78</c:v>
+                  <c:v>59.48</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.47</c:v>
+                  <c:v>61.32</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.71</c:v>
+                  <c:v>59.48</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.31</c:v>
+                  <c:v>65.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>158.1</c:v>
+                  <c:v>65.02</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.31</c:v>
+                  <c:v>64.77</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26.78</c:v>
+                  <c:v>59.28</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.49</c:v>
+                  <c:v>51.43</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.71</c:v>
+                  <c:v>49.93</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.09</c:v>
+                  <c:v>39.46</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.78</c:v>
+                  <c:v>37.01</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.36</c:v>
+                  <c:v>34.75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19.260000000000002</c:v>
+                  <c:v>28.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2792,8 +2787,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71344896"/>
-        <c:axId val="71346432"/>
+        <c:axId val="74191616"/>
+        <c:axId val="74193152"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2829,76 +2824,76 @@
                 <c:formatCode>##0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>178.38</c:v>
+                  <c:v>309.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174.21</c:v>
+                  <c:v>302.95999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174.12</c:v>
+                  <c:v>241.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>176.72</c:v>
+                  <c:v>277.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>177.78</c:v>
+                  <c:v>286.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180.48</c:v>
+                  <c:v>293.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>181.04</c:v>
+                  <c:v>296.70999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>186.04</c:v>
+                  <c:v>284.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>199.34</c:v>
+                  <c:v>299.81</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>206.78</c:v>
+                  <c:v>309.67</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>212.63</c:v>
+                  <c:v>320.97000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>217.71</c:v>
+                  <c:v>322.41000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>214.01</c:v>
+                  <c:v>331.33</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>218.1</c:v>
+                  <c:v>325.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>216.49</c:v>
+                  <c:v>336.85</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>209.2</c:v>
+                  <c:v>341.95</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>208.85</c:v>
+                  <c:v>358.01</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>206.43</c:v>
+                  <c:v>8.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>196.69</c:v>
+                  <c:v>26.12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>176.07</c:v>
+                  <c:v>11.44</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>183.54</c:v>
+                  <c:v>156.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>186.87</c:v>
+                  <c:v>207.22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>187.69</c:v>
+                  <c:v>156.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>183.76</c:v>
+                  <c:v>161.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2913,11 +2908,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="58350592"/>
-        <c:axId val="58347520"/>
+        <c:axId val="84613376"/>
+        <c:axId val="84616320"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="71344896"/>
+        <c:axId val="74191616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2944,7 +2939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71346432"/>
+        <c:crossAx val="74193152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2952,7 +2947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71346432"/>
+        <c:axId val="74193152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2981,12 +2976,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71344896"/>
+        <c:crossAx val="74191616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58347520"/>
+        <c:axId val="84616320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -3017,13 +3012,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58350592"/>
+        <c:crossAx val="84613376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="90"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58350592"/>
+        <c:axId val="84613376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3032,7 +3027,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58347520"/>
+        <c:crossAx val="84616320"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -3123,6 +3118,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3169,76 +3165,76 @@
                 <c:formatCode>##0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>38.89</c:v>
+                  <c:v>52.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.91</c:v>
+                  <c:v>49.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.36</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.88</c:v>
+                  <c:v>54.98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.89</c:v>
+                  <c:v>55.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.409999999999997</c:v>
+                  <c:v>56.98</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.950000000000003</c:v>
+                  <c:v>57.97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.86</c:v>
+                  <c:v>50.99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.86</c:v>
+                  <c:v>57.97</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.87</c:v>
+                  <c:v>55.98</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56.83</c:v>
+                  <c:v>51.94</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60.82</c:v>
+                  <c:v>59.97</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46.86</c:v>
+                  <c:v>56.98</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1000</c:v>
+                  <c:v>56.98</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>61.82</c:v>
+                  <c:v>57.97</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.89</c:v>
+                  <c:v>52.99</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.9</c:v>
+                  <c:v>66.31</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.9</c:v>
+                  <c:v>65.959999999999994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>66.8</c:v>
+                  <c:v>69.95</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43.87</c:v>
+                  <c:v>72.94</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>86.74</c:v>
+                  <c:v>88.91</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>47.81</c:v>
+                  <c:v>85.91</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>36.89</c:v>
+                  <c:v>81.92</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36.89</c:v>
+                  <c:v>87.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3363,8 +3359,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75908992"/>
-        <c:axId val="75910528"/>
+        <c:axId val="74215424"/>
+        <c:axId val="74216960"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3400,76 +3396,76 @@
                 <c:formatCode>##0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>178.38</c:v>
+                  <c:v>309.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174.21</c:v>
+                  <c:v>302.95999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174.12</c:v>
+                  <c:v>241.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>176.72</c:v>
+                  <c:v>277.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>177.78</c:v>
+                  <c:v>286.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180.48</c:v>
+                  <c:v>293.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>181.04</c:v>
+                  <c:v>296.70999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>186.04</c:v>
+                  <c:v>284.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>199.34</c:v>
+                  <c:v>299.81</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>206.78</c:v>
+                  <c:v>309.67</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>212.63</c:v>
+                  <c:v>320.97000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>217.71</c:v>
+                  <c:v>322.41000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>214.01</c:v>
+                  <c:v>331.33</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>218.1</c:v>
+                  <c:v>325.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>216.49</c:v>
+                  <c:v>336.85</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>209.2</c:v>
+                  <c:v>341.95</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>208.85</c:v>
+                  <c:v>358.01</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>206.43</c:v>
+                  <c:v>8.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>196.69</c:v>
+                  <c:v>26.12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>176.07</c:v>
+                  <c:v>11.44</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>183.54</c:v>
+                  <c:v>156.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>186.87</c:v>
+                  <c:v>207.22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>187.69</c:v>
+                  <c:v>156.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>183.76</c:v>
+                  <c:v>161.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3484,11 +3480,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="58390784"/>
-        <c:axId val="58169216"/>
+        <c:axId val="106893312"/>
+        <c:axId val="106890368"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="75908992"/>
+        <c:axId val="74215424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3510,12 +3506,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75910528"/>
+        <c:crossAx val="74216960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3523,7 +3520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75910528"/>
+        <c:axId val="74216960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3546,18 +3543,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75908992"/>
+        <c:crossAx val="74215424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58169216"/>
+        <c:axId val="106890368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -3588,13 +3586,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58390784"/>
+        <c:crossAx val="106893312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="90"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58390784"/>
+        <c:axId val="106893312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3603,12 +3601,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58169216"/>
+        <c:crossAx val="106890368"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3728,13 +3727,13 @@
                 <c:formatCode>##0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.12</c:v>
@@ -3743,61 +3742,61 @@
                   <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.14000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>0.11</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.18</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.11</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.09</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3922,8 +3921,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76008064"/>
-        <c:axId val="75973376"/>
+        <c:axId val="75324416"/>
+        <c:axId val="75354880"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3959,76 +3958,76 @@
                 <c:formatCode>##0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>178.38</c:v>
+                  <c:v>309.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174.21</c:v>
+                  <c:v>302.95999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174.12</c:v>
+                  <c:v>241.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>176.72</c:v>
+                  <c:v>277.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>177.78</c:v>
+                  <c:v>286.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180.48</c:v>
+                  <c:v>293.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>181.04</c:v>
+                  <c:v>296.70999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>186.04</c:v>
+                  <c:v>284.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>199.34</c:v>
+                  <c:v>299.81</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>206.78</c:v>
+                  <c:v>309.67</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>212.63</c:v>
+                  <c:v>320.97000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>217.71</c:v>
+                  <c:v>322.41000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>214.01</c:v>
+                  <c:v>331.33</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>218.1</c:v>
+                  <c:v>325.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>216.49</c:v>
+                  <c:v>336.85</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>209.2</c:v>
+                  <c:v>341.95</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>208.85</c:v>
+                  <c:v>358.01</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>206.43</c:v>
+                  <c:v>8.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>196.69</c:v>
+                  <c:v>26.12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>176.07</c:v>
+                  <c:v>11.44</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>183.54</c:v>
+                  <c:v>156.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>186.87</c:v>
+                  <c:v>207.22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>187.69</c:v>
+                  <c:v>156.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>183.76</c:v>
+                  <c:v>161.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4043,11 +4042,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="55629696"/>
-        <c:axId val="41900672"/>
+        <c:axId val="107080704"/>
+        <c:axId val="107075456"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="76008064"/>
+        <c:axId val="75324416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4074,7 +4073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75973376"/>
+        <c:crossAx val="75354880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4082,7 +4081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75973376"/>
+        <c:axId val="75354880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4111,12 +4110,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76008064"/>
+        <c:crossAx val="75324416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41900672"/>
+        <c:axId val="107075456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -4147,13 +4146,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55629696"/>
+        <c:crossAx val="107080704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="90"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55629696"/>
+        <c:axId val="107080704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4162,7 +4161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41900672"/>
+        <c:crossAx val="107075456"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -4300,76 +4299,76 @@
                 <c:formatCode>##0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>60.15</c:v>
+                  <c:v>104.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.18</c:v>
+                  <c:v>101.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.77</c:v>
+                  <c:v>96.66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.03</c:v>
+                  <c:v>104.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59.18</c:v>
+                  <c:v>100.49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.11</c:v>
+                  <c:v>104.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63.03</c:v>
+                  <c:v>105.29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.58</c:v>
+                  <c:v>108.17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>66.88</c:v>
+                  <c:v>105.29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.93</c:v>
+                  <c:v>107.21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>97.66</c:v>
+                  <c:v>98.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>104.4</c:v>
+                  <c:v>102.41</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>88.04</c:v>
+                  <c:v>100.49</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1000</c:v>
+                  <c:v>106.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83.23</c:v>
+                  <c:v>96.66</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>63.99</c:v>
+                  <c:v>110.09</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>68.8</c:v>
+                  <c:v>104.33</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>65.92</c:v>
+                  <c:v>115.85</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58.22</c:v>
+                  <c:v>127.37</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>68.989999999999995</c:v>
+                  <c:v>137.93</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>62.07</c:v>
+                  <c:v>152.33000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>65.959999999999994</c:v>
+                  <c:v>149.79</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>60.21</c:v>
+                  <c:v>149.77000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>58.3</c:v>
+                  <c:v>142.72999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4494,8 +4493,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76067200"/>
-        <c:axId val="76068736"/>
+        <c:axId val="75385856"/>
+        <c:axId val="75416320"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4531,76 +4530,76 @@
                 <c:formatCode>##0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>178.38</c:v>
+                  <c:v>309.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174.21</c:v>
+                  <c:v>302.95999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174.12</c:v>
+                  <c:v>241.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>176.72</c:v>
+                  <c:v>277.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>177.78</c:v>
+                  <c:v>286.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180.48</c:v>
+                  <c:v>293.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>181.04</c:v>
+                  <c:v>296.70999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>186.04</c:v>
+                  <c:v>284.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>199.34</c:v>
+                  <c:v>299.81</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>206.78</c:v>
+                  <c:v>309.67</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>212.63</c:v>
+                  <c:v>320.97000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>217.71</c:v>
+                  <c:v>322.41000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>214.01</c:v>
+                  <c:v>331.33</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>218.1</c:v>
+                  <c:v>325.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>216.49</c:v>
+                  <c:v>336.85</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>209.2</c:v>
+                  <c:v>341.95</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>208.85</c:v>
+                  <c:v>358.01</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>206.43</c:v>
+                  <c:v>8.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>196.69</c:v>
+                  <c:v>26.12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>176.07</c:v>
+                  <c:v>11.44</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>183.54</c:v>
+                  <c:v>156.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>186.87</c:v>
+                  <c:v>207.22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>187.69</c:v>
+                  <c:v>156.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>183.76</c:v>
+                  <c:v>161.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4615,11 +4614,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="56513280"/>
-        <c:axId val="56509952"/>
+        <c:axId val="107174528"/>
+        <c:axId val="107074688"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="76067200"/>
+        <c:axId val="75385856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4647,7 +4646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76068736"/>
+        <c:crossAx val="75416320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4655,7 +4654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76068736"/>
+        <c:axId val="75416320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4685,12 +4684,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76067200"/>
+        <c:crossAx val="75385856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56509952"/>
+        <c:axId val="107074688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -4721,13 +4720,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56513280"/>
+        <c:crossAx val="107174528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="90"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56513280"/>
+        <c:axId val="107174528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4736,7 +4735,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56509952"/>
+        <c:crossAx val="107074688"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -5297,9 +5296,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" customWidth="true" width="11.125" collapsed="true"/>
-    <col min="13" max="15" customWidth="true" hidden="true" width="11.125" collapsed="true"/>
-    <col min="16" max="30" customWidth="true" width="11.125" collapsed="true"/>
+    <col min="1" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="15" width="11.125" hidden="1" customWidth="1"/>
+    <col min="16" max="30" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5373,8 +5372,8 @@
       <c r="AD2" s="2"/>
     </row>
     <row r="3" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>44</v>
+      <c r="A3" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -5385,28 +5384,28 @@
       <c r="H3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="18" t="s">
         <v>40</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="21" t="s">
         <v>43</v>
       </c>
       <c r="S3" s="5"/>
@@ -5517,55 +5516,55 @@
         <v>0</v>
       </c>
       <c r="B5" s="9">
-        <v>1.51</v>
+        <v>3.58</v>
       </c>
       <c r="C5" s="9">
-        <v>6.99</v>
+        <v>7.47</v>
       </c>
       <c r="D5" s="9">
-        <v>4.78</v>
+        <v>5.08</v>
       </c>
       <c r="E5" s="9">
-        <v>2.21</v>
+        <v>2.39</v>
       </c>
       <c r="F5" s="9">
-        <v>0.32</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G5" s="9">
-        <v>16.170000000000002</v>
+        <v>43.89</v>
       </c>
       <c r="H5" s="9">
-        <v>2.35</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="I5" s="9">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="J5" s="9">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="K5" s="9">
-        <v>60.15</v>
+        <v>104.33</v>
       </c>
       <c r="L5" s="9">
-        <v>38.89</v>
+        <v>52.99</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9">
-        <v>3.32</v>
+        <v>1.56</v>
       </c>
       <c r="Q5" s="9">
-        <v>178.38</v>
+        <v>309.38</v>
       </c>
       <c r="R5" s="9">
-        <v>29.17</v>
+        <v>25.79</v>
       </c>
       <c r="S5" s="9">
-        <v>83.28</v>
+        <v>83.33</v>
       </c>
       <c r="T5" s="9">
-        <v>1005.55</v>
+        <v>1012</v>
       </c>
       <c r="U5" s="9">
         <v>0</v>
@@ -5599,55 +5598,55 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="B6" s="9">
-        <v>1.46</v>
+        <v>2.66</v>
       </c>
       <c r="C6" s="9">
-        <v>8.8800000000000008</v>
+        <v>3.79</v>
       </c>
       <c r="D6" s="9">
-        <v>6.52</v>
+        <v>1.67</v>
       </c>
       <c r="E6" s="9">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="F6" s="9">
-        <v>0.35</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G6" s="9">
-        <v>12.57</v>
+        <v>49.05</v>
       </c>
       <c r="H6" s="9">
-        <v>2.52</v>
+        <v>2.27</v>
       </c>
       <c r="I6" s="9">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="J6" s="9">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="K6" s="9">
-        <v>59.18</v>
+        <v>101.45</v>
       </c>
       <c r="L6" s="9">
-        <v>31.91</v>
+        <v>49.99</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9">
-        <v>3.37</v>
+        <v>1.05</v>
       </c>
       <c r="Q6" s="9">
-        <v>174.21</v>
+        <v>302.95999999999998</v>
       </c>
       <c r="R6" s="9">
-        <v>28.78</v>
+        <v>25.62</v>
       </c>
       <c r="S6" s="9">
-        <v>84.86</v>
+        <v>83.42</v>
       </c>
       <c r="T6" s="9">
-        <v>1005.03</v>
+        <v>1011.52</v>
       </c>
       <c r="U6" s="9">
         <v>0</v>
@@ -5681,55 +5680,55 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="B7" s="9">
-        <v>2.2400000000000002</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="C7" s="9">
-        <v>13.15</v>
+        <v>3.6</v>
       </c>
       <c r="D7" s="9">
-        <v>10.81</v>
+        <v>1.43</v>
       </c>
       <c r="E7" s="9">
-        <v>2.34</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="F7" s="9">
-        <v>0.38</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G7" s="9">
-        <v>9.36</v>
+        <v>44.37</v>
       </c>
       <c r="H7" s="9">
-        <v>2.5499999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I7" s="9">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="J7" s="9">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="K7" s="9">
-        <v>69.77</v>
+        <v>96.66</v>
       </c>
       <c r="L7" s="9">
-        <v>38.36</v>
+        <v>46</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9">
-        <v>3.67</v>
+        <v>0.88</v>
       </c>
       <c r="Q7" s="9">
-        <v>174.12</v>
+        <v>241.82</v>
       </c>
       <c r="R7" s="9">
-        <v>28.67</v>
+        <v>25.35</v>
       </c>
       <c r="S7" s="9">
-        <v>83.88</v>
+        <v>84.32</v>
       </c>
       <c r="T7" s="9">
-        <v>1004.88</v>
+        <v>1011.13</v>
       </c>
       <c r="U7" s="9">
         <v>0</v>
@@ -5763,55 +5762,55 @@
         <v>0.125</v>
       </c>
       <c r="B8" s="9">
-        <v>2.2400000000000002</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="C8" s="9">
-        <v>9.7899999999999991</v>
+        <v>4.09</v>
       </c>
       <c r="D8" s="9">
-        <v>7.48</v>
+        <v>1.7</v>
       </c>
       <c r="E8" s="9">
-        <v>2.31</v>
+        <v>2.39</v>
       </c>
       <c r="F8" s="9">
-        <v>0.34</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G8" s="9">
-        <v>13.21</v>
+        <v>45.13</v>
       </c>
       <c r="H8" s="9">
-        <v>2.4</v>
+        <v>2.19</v>
       </c>
       <c r="I8" s="9">
-        <v>2.2799999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="J8" s="9">
         <v>0.12</v>
       </c>
       <c r="K8" s="9">
-        <v>63.03</v>
+        <v>104.33</v>
       </c>
       <c r="L8" s="9">
-        <v>41.88</v>
+        <v>54.98</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9">
-        <v>3.6</v>
+        <v>1.82</v>
       </c>
       <c r="Q8" s="9">
-        <v>176.72</v>
+        <v>277.25</v>
       </c>
       <c r="R8" s="9">
-        <v>28.77</v>
+        <v>25.16</v>
       </c>
       <c r="S8" s="9">
-        <v>82.75</v>
+        <v>86</v>
       </c>
       <c r="T8" s="9">
-        <v>1004.69</v>
+        <v>1011.2</v>
       </c>
       <c r="U8" s="9">
         <v>0</v>
@@ -5845,55 +5844,55 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="B9" s="9">
-        <v>2.02</v>
+        <v>3</v>
       </c>
       <c r="C9" s="9">
-        <v>9.27</v>
+        <v>4.22</v>
       </c>
       <c r="D9" s="9">
-        <v>6.95</v>
+        <v>2.1</v>
       </c>
       <c r="E9" s="9">
-        <v>2.3199999999999998</v>
+        <v>2.12</v>
       </c>
       <c r="F9" s="9">
-        <v>0.32</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G9" s="9">
-        <v>13.85</v>
+        <v>48.72</v>
       </c>
       <c r="H9" s="9">
-        <v>2.31</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="I9" s="9">
-        <v>2.21</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="J9" s="9">
         <v>0.11</v>
       </c>
       <c r="K9" s="9">
-        <v>59.18</v>
+        <v>100.49</v>
       </c>
       <c r="L9" s="9">
-        <v>36.89</v>
+        <v>55.73</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9">
-        <v>3.32</v>
+        <v>2.1</v>
       </c>
       <c r="Q9" s="9">
-        <v>177.78</v>
+        <v>286.73</v>
       </c>
       <c r="R9" s="9">
-        <v>28.65</v>
+        <v>25.14</v>
       </c>
       <c r="S9" s="9">
-        <v>82.47</v>
+        <v>86.21</v>
       </c>
       <c r="T9" s="9">
-        <v>1004.6</v>
+        <v>1011.21</v>
       </c>
       <c r="U9" s="9">
         <v>0</v>
@@ -5927,55 +5926,55 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="B10" s="9">
-        <v>1.97</v>
+        <v>3.34</v>
       </c>
       <c r="C10" s="9">
-        <v>9.86</v>
+        <v>4.37</v>
       </c>
       <c r="D10" s="9">
-        <v>7.45</v>
+        <v>2.09</v>
       </c>
       <c r="E10" s="9">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="F10" s="9">
-        <v>0.33</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G10" s="9">
-        <v>13.17</v>
+        <v>46.75</v>
       </c>
       <c r="H10" s="9">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="I10" s="9">
-        <v>2.23</v>
+        <v>2.12</v>
       </c>
       <c r="J10" s="9">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K10" s="9">
-        <v>61.11</v>
+        <v>104.33</v>
       </c>
       <c r="L10" s="9">
-        <v>32.409999999999997</v>
+        <v>56.98</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9">
-        <v>3.46</v>
+        <v>1.45</v>
       </c>
       <c r="Q10" s="9">
-        <v>180.48</v>
+        <v>293.11</v>
       </c>
       <c r="R10" s="9">
-        <v>28.56</v>
+        <v>24.92</v>
       </c>
       <c r="S10" s="9">
-        <v>82.41</v>
+        <v>86.16</v>
       </c>
       <c r="T10" s="9">
-        <v>1004.7</v>
+        <v>1011.35</v>
       </c>
       <c r="U10" s="9">
         <v>0</v>
@@ -6009,55 +6008,55 @@
         <v>0.25</v>
       </c>
       <c r="B11" s="9">
-        <v>1.94</v>
+        <v>2.79</v>
       </c>
       <c r="C11" s="9">
-        <v>9.7100000000000009</v>
+        <v>3.65</v>
       </c>
       <c r="D11" s="9">
-        <v>6.73</v>
+        <v>1.5</v>
       </c>
       <c r="E11" s="9">
-        <v>2.98</v>
+        <v>2.16</v>
       </c>
       <c r="F11" s="9">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="G11" s="9">
-        <v>15.42</v>
+        <v>48.33</v>
       </c>
       <c r="H11" s="9">
-        <v>2.27</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="I11" s="9">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="J11" s="9">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="K11" s="9">
-        <v>63.03</v>
+        <v>105.29</v>
       </c>
       <c r="L11" s="9">
-        <v>35.950000000000003</v>
+        <v>57.97</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9">
-        <v>4.51</v>
+        <v>1.44</v>
       </c>
       <c r="Q11" s="9">
-        <v>181.04</v>
+        <v>296.70999999999998</v>
       </c>
       <c r="R11" s="9">
-        <v>29.53</v>
+        <v>25.2</v>
       </c>
       <c r="S11" s="9">
-        <v>78.97</v>
+        <v>85.38</v>
       </c>
       <c r="T11" s="9">
-        <v>1004.54</v>
+        <v>1012.21</v>
       </c>
       <c r="U11" s="9">
         <v>0</v>
@@ -6091,55 +6090,55 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="B12" s="9">
-        <v>2</v>
+        <v>2.72</v>
       </c>
       <c r="C12" s="9">
-        <v>10.57</v>
+        <v>3.82</v>
       </c>
       <c r="D12" s="9">
-        <v>6.69</v>
+        <v>1.57</v>
       </c>
       <c r="E12" s="9">
-        <v>3.88</v>
+        <v>2.25</v>
       </c>
       <c r="F12" s="9">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G12" s="9">
-        <v>17.239999999999998</v>
+        <v>51.12</v>
       </c>
       <c r="H12" s="9">
-        <v>2.31</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I12" s="9">
-        <v>2.17</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="J12" s="9">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="K12" s="9">
-        <v>74.58</v>
+        <v>108.17</v>
       </c>
       <c r="L12" s="9">
-        <v>46.86</v>
+        <v>50.99</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9">
-        <v>5.1100000000000003</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="Q12" s="9">
-        <v>186.04</v>
+        <v>284.95</v>
       </c>
       <c r="R12" s="9">
-        <v>30.6</v>
+        <v>26.58</v>
       </c>
       <c r="S12" s="9">
-        <v>75.47</v>
+        <v>80.17</v>
       </c>
       <c r="T12" s="9">
-        <v>1004.74</v>
+        <v>1012.65</v>
       </c>
       <c r="U12" s="9">
         <v>0</v>
@@ -6173,55 +6172,55 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B13" s="9">
-        <v>1.75</v>
+        <v>4.42</v>
       </c>
       <c r="C13" s="9">
-        <v>8.6199999999999992</v>
+        <v>7.47</v>
       </c>
       <c r="D13" s="9">
-        <v>5.15</v>
+        <v>4.83</v>
       </c>
       <c r="E13" s="9">
-        <v>3.47</v>
+        <v>2.65</v>
       </c>
       <c r="F13" s="9">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="G13" s="9">
-        <v>20.98</v>
+        <v>48.09</v>
       </c>
       <c r="H13" s="9">
-        <v>2.2599999999999998</v>
+        <v>2.19</v>
       </c>
       <c r="I13" s="9">
-        <v>2.15</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="J13" s="9">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="K13" s="9">
-        <v>66.88</v>
+        <v>105.29</v>
       </c>
       <c r="L13" s="9">
-        <v>47.86</v>
+        <v>57.97</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9">
-        <v>5.24</v>
+        <v>1.81</v>
       </c>
       <c r="Q13" s="9">
-        <v>199.34</v>
+        <v>299.81</v>
       </c>
       <c r="R13" s="9">
-        <v>31.56</v>
+        <v>27.1</v>
       </c>
       <c r="S13" s="9">
-        <v>72.989999999999995</v>
+        <v>75.77</v>
       </c>
       <c r="T13" s="9">
-        <v>1004.9</v>
+        <v>1012.97</v>
       </c>
       <c r="U13" s="9">
         <v>0</v>
@@ -6255,55 +6254,55 @@
         <v>0.375</v>
       </c>
       <c r="B14" s="9">
-        <v>1.58</v>
+        <v>3.67</v>
       </c>
       <c r="C14" s="9">
-        <v>5.94</v>
+        <v>5.35</v>
       </c>
       <c r="D14" s="9">
-        <v>3.48</v>
+        <v>2.86</v>
       </c>
       <c r="E14" s="9">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="F14" s="9">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="G14" s="9">
-        <v>25.42</v>
+        <v>52.87</v>
       </c>
       <c r="H14" s="9">
-        <v>2.16</v>
+        <v>2.21</v>
       </c>
       <c r="I14" s="9">
-        <v>2.0699999999999998</v>
+        <v>2.08</v>
       </c>
       <c r="J14" s="9">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="K14" s="9">
-        <v>90.93</v>
+        <v>107.21</v>
       </c>
       <c r="L14" s="9">
-        <v>44.87</v>
+        <v>55.98</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9">
-        <v>6.49</v>
+        <v>2.11</v>
       </c>
       <c r="Q14" s="9">
-        <v>206.78</v>
+        <v>309.67</v>
       </c>
       <c r="R14" s="9">
-        <v>32.200000000000003</v>
+        <v>27.37</v>
       </c>
       <c r="S14" s="9">
-        <v>68.959999999999994</v>
+        <v>73.92</v>
       </c>
       <c r="T14" s="9">
-        <v>1004.92</v>
+        <v>1013.09</v>
       </c>
       <c r="U14" s="9">
         <v>0</v>
@@ -6337,58 +6336,58 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B15" s="9">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="C15" s="9">
-        <v>7.42</v>
+        <v>4.3</v>
       </c>
       <c r="D15" s="9">
-        <v>4.97</v>
+        <v>1.64</v>
       </c>
       <c r="E15" s="9">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="F15" s="9">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="G15" s="9">
-        <v>27.86</v>
+        <v>55.37</v>
       </c>
       <c r="H15" s="9">
-        <v>2.14</v>
+        <v>2.21</v>
       </c>
       <c r="I15" s="9">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="J15" s="9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.13</v>
       </c>
       <c r="K15" s="9">
-        <v>97.66</v>
+        <v>98.08</v>
       </c>
       <c r="L15" s="9">
-        <v>56.83</v>
+        <v>51.94</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9">
-        <v>6.86</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Q15" s="9">
-        <v>212.63</v>
+        <v>320.97000000000003</v>
       </c>
       <c r="R15" s="9">
-        <v>32.9</v>
+        <v>27.53</v>
       </c>
       <c r="S15" s="9">
-        <v>65.36</v>
+        <v>72.819999999999993</v>
       </c>
       <c r="T15" s="9">
-        <v>1004.88</v>
-      </c>
-      <c r="U15" s="10">
-        <v>54.2</v>
+        <v>1012.83</v>
+      </c>
+      <c r="U15" s="9">
+        <v>0</v>
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
@@ -6419,58 +6418,58 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="B16" s="9">
-        <v>1.47</v>
+        <v>4.34</v>
       </c>
       <c r="C16" s="9">
-        <v>7.17</v>
+        <v>4.43</v>
       </c>
       <c r="D16" s="9">
-        <v>4.58</v>
+        <v>1.98</v>
       </c>
       <c r="E16" s="9">
-        <v>2.59</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F16" s="9">
         <v>0.31</v>
       </c>
       <c r="G16" s="9">
-        <v>27.78</v>
-      </c>
-      <c r="H16" s="11">
-        <v>2.12</v>
-      </c>
-      <c r="I16" s="11">
-        <v>1.92</v>
-      </c>
-      <c r="J16" s="11">
-        <v>0.2</v>
+        <v>59.48</v>
+      </c>
+      <c r="H16" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I16" s="9">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0.15</v>
       </c>
       <c r="K16" s="9">
-        <v>104.4</v>
+        <v>102.41</v>
       </c>
       <c r="L16" s="9">
-        <v>60.82</v>
+        <v>59.97</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9">
-        <v>6.68</v>
+        <v>2.95</v>
       </c>
       <c r="Q16" s="9">
-        <v>217.71</v>
+        <v>322.41000000000003</v>
       </c>
       <c r="R16" s="9">
-        <v>33.520000000000003</v>
+        <v>26.97</v>
       </c>
       <c r="S16" s="9">
-        <v>62.98</v>
+        <v>76.3</v>
       </c>
       <c r="T16" s="9">
-        <v>1004.54</v>
-      </c>
-      <c r="U16" s="10">
-        <v>2.8</v>
+        <v>1012.51</v>
+      </c>
+      <c r="U16" s="9">
+        <v>0</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -6501,57 +6500,57 @@
         <v>0.5</v>
       </c>
       <c r="B17" s="9">
-        <v>1.67</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="C17" s="9">
-        <v>6.54</v>
+        <v>3.55</v>
       </c>
       <c r="D17" s="9">
-        <v>4.16</v>
+        <v>1.19</v>
       </c>
       <c r="E17" s="9">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="F17" s="9">
-        <v>0.32</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G17" s="9">
-        <v>28.47</v>
-      </c>
-      <c r="H17" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="I17" s="10">
-        <v>1.91</v>
-      </c>
-      <c r="J17" s="10">
-        <v>0.18</v>
+        <v>61.32</v>
+      </c>
+      <c r="H17" s="9">
+        <v>2.19</v>
+      </c>
+      <c r="I17" s="9">
+        <v>2.04</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.16</v>
       </c>
       <c r="K17" s="9">
-        <v>88.04</v>
+        <v>100.49</v>
       </c>
       <c r="L17" s="9">
-        <v>46.86</v>
+        <v>56.98</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9">
-        <v>6.93</v>
+        <v>4.5</v>
       </c>
       <c r="Q17" s="9">
-        <v>214.01</v>
+        <v>331.33</v>
       </c>
       <c r="R17" s="9">
-        <v>33.5</v>
+        <v>27.05</v>
       </c>
       <c r="S17" s="9">
-        <v>64.11</v>
+        <v>78.12</v>
       </c>
       <c r="T17" s="9">
-        <v>1004.28</v>
-      </c>
-      <c r="U17" s="10">
+        <v>1011.85</v>
+      </c>
+      <c r="U17" s="9">
         <v>0</v>
       </c>
       <c r="V17" s="2"/>
@@ -6583,55 +6582,55 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="B18" s="9">
-        <v>2.69</v>
+        <v>3.15</v>
       </c>
       <c r="C18" s="9">
-        <v>6.8</v>
+        <v>3.29</v>
       </c>
       <c r="D18" s="9">
-        <v>4.0199999999999996</v>
+        <v>0.79</v>
       </c>
       <c r="E18" s="9">
-        <v>2.78</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="F18" s="9">
-        <v>0.31</v>
-      </c>
-      <c r="G18" s="10">
-        <v>27.71</v>
-      </c>
-      <c r="H18" s="11">
-        <v>1.97</v>
-      </c>
-      <c r="I18" s="11">
-        <v>1.85</v>
-      </c>
-      <c r="J18" s="11">
-        <v>0.12</v>
-      </c>
-      <c r="K18" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L18" s="10">
-        <v>1000</v>
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="9">
+        <v>59.48</v>
+      </c>
+      <c r="H18" s="9">
+        <v>2.17</v>
+      </c>
+      <c r="I18" s="9">
+        <v>2.04</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="K18" s="9">
+        <v>106.25</v>
+      </c>
+      <c r="L18" s="9">
+        <v>56.98</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9">
-        <v>6.67</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="Q18" s="9">
-        <v>218.1</v>
+        <v>325.92</v>
       </c>
       <c r="R18" s="9">
-        <v>32.43</v>
+        <v>26.53</v>
       </c>
       <c r="S18" s="9">
-        <v>66.430000000000007</v>
+        <v>79.37</v>
       </c>
       <c r="T18" s="9">
-        <v>1004.01</v>
+        <v>1011.35</v>
       </c>
       <c r="U18" s="9">
         <v>0</v>
@@ -6665,55 +6664,55 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B19" s="9">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="C19" s="9">
-        <v>8.61</v>
+        <v>2.99</v>
       </c>
       <c r="D19" s="9">
-        <v>5.7</v>
+        <v>0.71</v>
       </c>
       <c r="E19" s="9">
-        <v>2.91</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="F19" s="9">
-        <v>0.34</v>
-      </c>
-      <c r="G19" s="10">
-        <v>24.31</v>
+        <v>0.31</v>
+      </c>
+      <c r="G19" s="9">
+        <v>65.2</v>
       </c>
       <c r="H19" s="9">
-        <v>1.97</v>
+        <v>2.21</v>
       </c>
       <c r="I19" s="9">
-        <v>1.85</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="J19" s="9">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K19" s="9">
-        <v>83.23</v>
+        <v>96.66</v>
       </c>
       <c r="L19" s="9">
-        <v>61.82</v>
+        <v>57.97</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9">
-        <v>6.13</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="Q19" s="9">
-        <v>216.49</v>
+        <v>336.85</v>
       </c>
       <c r="R19" s="9">
-        <v>32.840000000000003</v>
+        <v>26.05</v>
       </c>
       <c r="S19" s="9">
-        <v>68.069999999999993</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="T19" s="9">
-        <v>1003.3</v>
+        <v>1010.62</v>
       </c>
       <c r="U19" s="9">
         <v>0</v>
@@ -6747,55 +6746,55 @@
         <v>0.625</v>
       </c>
       <c r="B20" s="9">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="C20" s="9">
-        <v>8.07</v>
+        <v>3</v>
       </c>
       <c r="D20" s="9">
-        <v>5.25</v>
+        <v>0.79</v>
       </c>
       <c r="E20" s="9">
-        <v>2.82</v>
+        <v>2.21</v>
       </c>
       <c r="F20" s="9">
         <v>0.32</v>
       </c>
-      <c r="G20" s="10">
-        <v>158.1</v>
+      <c r="G20" s="9">
+        <v>65.02</v>
       </c>
       <c r="H20" s="9">
-        <v>1.95</v>
+        <v>2.19</v>
       </c>
       <c r="I20" s="9">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="J20" s="9">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="K20" s="9">
-        <v>63.99</v>
+        <v>110.09</v>
       </c>
       <c r="L20" s="9">
-        <v>37.89</v>
+        <v>52.99</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9">
-        <v>6.31</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="Q20" s="9">
-        <v>209.2</v>
+        <v>341.95</v>
       </c>
       <c r="R20" s="9">
-        <v>32.659999999999997</v>
+        <v>26.1</v>
       </c>
       <c r="S20" s="9">
-        <v>66.67</v>
+        <v>79.55</v>
       </c>
       <c r="T20" s="9">
-        <v>1002.7</v>
+        <v>1010.28</v>
       </c>
       <c r="U20" s="9">
         <v>0</v>
@@ -6828,56 +6827,56 @@
       <c r="A21" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B21" s="10">
-        <v>105.09</v>
-      </c>
-      <c r="C21" s="10">
-        <v>110.16</v>
-      </c>
-      <c r="D21" s="10">
-        <v>3.53</v>
-      </c>
-      <c r="E21" s="10">
-        <v>106.64</v>
-      </c>
-      <c r="F21" s="10">
-        <v>10.58</v>
-      </c>
-      <c r="G21" s="11">
-        <v>27.31</v>
+      <c r="B21" s="9">
+        <v>2.73</v>
+      </c>
+      <c r="C21" s="9">
+        <v>3</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.76</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="G21" s="9">
+        <v>64.77</v>
       </c>
       <c r="H21" s="9">
-        <v>1.89</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="I21" s="9">
-        <v>1.81</v>
+        <v>2.09</v>
       </c>
       <c r="J21" s="9">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="K21" s="9">
-        <v>68.8</v>
+        <v>104.33</v>
       </c>
       <c r="L21" s="9">
-        <v>34.9</v>
+        <v>66.31</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9">
-        <v>6.29</v>
+        <v>3.31</v>
       </c>
       <c r="Q21" s="9">
-        <v>208.85</v>
+        <v>358.01</v>
       </c>
       <c r="R21" s="9">
-        <v>32.020000000000003</v>
+        <v>26.46</v>
       </c>
       <c r="S21" s="9">
-        <v>69.12</v>
+        <v>77.73</v>
       </c>
       <c r="T21" s="9">
-        <v>1002.57</v>
+        <v>1010.3</v>
       </c>
       <c r="U21" s="9">
         <v>0</v>
@@ -6910,56 +6909,56 @@
       <c r="A22" s="8">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B22" s="11">
-        <v>1.63</v>
-      </c>
-      <c r="C22" s="11">
-        <v>4.99</v>
-      </c>
-      <c r="D22" s="11">
-        <v>3.26</v>
-      </c>
-      <c r="E22" s="11">
-        <v>1.73</v>
-      </c>
-      <c r="F22" s="11">
-        <v>0.3</v>
+      <c r="B22" s="9">
+        <v>2.71</v>
+      </c>
+      <c r="C22" s="9">
+        <v>3.77</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1.53</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.34</v>
       </c>
       <c r="G22" s="9">
-        <v>26.78</v>
+        <v>59.28</v>
       </c>
       <c r="H22" s="9">
-        <v>1.95</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="I22" s="9">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="J22" s="9">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="K22" s="9">
-        <v>65.92</v>
+        <v>115.85</v>
       </c>
       <c r="L22" s="9">
-        <v>34.9</v>
+        <v>65.959999999999994</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9">
-        <v>5.12</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="Q22" s="9">
-        <v>206.43</v>
+        <v>8.82</v>
       </c>
       <c r="R22" s="9">
-        <v>31.53</v>
+        <v>26.8</v>
       </c>
       <c r="S22" s="9">
-        <v>72.52</v>
+        <v>74.59</v>
       </c>
       <c r="T22" s="9">
-        <v>1002.86</v>
+        <v>1010.41</v>
       </c>
       <c r="U22" s="9">
         <v>0</v>
@@ -6993,55 +6992,55 @@
         <v>0.75</v>
       </c>
       <c r="B23" s="9">
-        <v>1.17</v>
+        <v>2.79</v>
       </c>
       <c r="C23" s="9">
-        <v>3.93</v>
+        <v>5.78</v>
       </c>
       <c r="D23" s="9">
-        <v>2.4300000000000002</v>
+        <v>3.52</v>
       </c>
       <c r="E23" s="9">
-        <v>1.51</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F23" s="9">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="G23" s="9">
-        <v>24.49</v>
+        <v>51.43</v>
       </c>
       <c r="H23" s="9">
-        <v>1.99</v>
+        <v>2.4</v>
       </c>
       <c r="I23" s="9">
-        <v>1.91</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="J23" s="9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.18</v>
       </c>
       <c r="K23" s="9">
-        <v>58.22</v>
-      </c>
-      <c r="L23" s="12">
-        <v>66.8</v>
+        <v>127.37</v>
+      </c>
+      <c r="L23" s="9">
+        <v>69.95</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9">
-        <v>4.1900000000000004</v>
+        <v>1.33</v>
       </c>
       <c r="Q23" s="9">
-        <v>196.69</v>
+        <v>26.12</v>
       </c>
       <c r="R23" s="9">
-        <v>31.01</v>
+        <v>26.84</v>
       </c>
       <c r="S23" s="9">
-        <v>75.03</v>
+        <v>72.81</v>
       </c>
       <c r="T23" s="9">
-        <v>1003.29</v>
+        <v>1010.83</v>
       </c>
       <c r="U23" s="9">
         <v>0</v>
@@ -7075,55 +7074,55 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="9">
-        <v>1.1499999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="C24" s="9">
-        <v>5.35</v>
+        <v>5.57</v>
       </c>
       <c r="D24" s="9">
-        <v>3.71</v>
+        <v>3.44</v>
       </c>
       <c r="E24" s="9">
-        <v>1.64</v>
+        <v>2.13</v>
       </c>
       <c r="F24" s="9">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="G24" s="9">
-        <v>20.71</v>
+        <v>49.93</v>
       </c>
       <c r="H24" s="9">
-        <v>2.11</v>
+        <v>2.41</v>
       </c>
       <c r="I24" s="9">
-        <v>1.99</v>
+        <v>2.27</v>
       </c>
       <c r="J24" s="9">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="K24" s="9">
-        <v>68.989999999999995</v>
+        <v>137.93</v>
       </c>
       <c r="L24" s="9">
-        <v>43.87</v>
+        <v>72.94</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9">
-        <v>3.85</v>
+        <v>0.64</v>
       </c>
       <c r="Q24" s="9">
-        <v>176.07</v>
+        <v>11.44</v>
       </c>
       <c r="R24" s="9">
-        <v>30.53</v>
+        <v>26.76</v>
       </c>
       <c r="S24" s="9">
-        <v>77.88</v>
+        <v>74.319999999999993</v>
       </c>
       <c r="T24" s="9">
-        <v>1003.51</v>
+        <v>1011.38</v>
       </c>
       <c r="U24" s="9">
         <v>0</v>
@@ -7157,55 +7156,55 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="B25" s="9">
-        <v>1.45</v>
+        <v>3.12</v>
       </c>
       <c r="C25" s="9">
-        <v>5.07</v>
+        <v>9.92</v>
       </c>
       <c r="D25" s="9">
-        <v>3.53</v>
+        <v>7.68</v>
       </c>
       <c r="E25" s="9">
-        <v>1.54</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="F25" s="9">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
       <c r="G25" s="9">
-        <v>20.09</v>
+        <v>39.46</v>
       </c>
       <c r="H25" s="9">
-        <v>2.12</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="I25" s="9">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="J25" s="9">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="K25" s="9">
-        <v>62.07</v>
-      </c>
-      <c r="L25" s="12">
-        <v>86.74</v>
+        <v>152.33000000000001</v>
+      </c>
+      <c r="L25" s="9">
+        <v>88.91</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9">
-        <v>4.2699999999999996</v>
+        <v>0.91</v>
       </c>
       <c r="Q25" s="9">
-        <v>183.54</v>
+        <v>156.80000000000001</v>
       </c>
       <c r="R25" s="9">
-        <v>30.19</v>
+        <v>27.05</v>
       </c>
       <c r="S25" s="9">
-        <v>79.290000000000006</v>
+        <v>73.28</v>
       </c>
       <c r="T25" s="9">
-        <v>1004.04</v>
+        <v>1011.82</v>
       </c>
       <c r="U25" s="9">
         <v>0</v>
@@ -7239,55 +7238,55 @@
         <v>0.875</v>
       </c>
       <c r="B26" s="9">
-        <v>1.6</v>
+        <v>3.14</v>
       </c>
       <c r="C26" s="9">
-        <v>4.6500000000000004</v>
+        <v>9.09</v>
       </c>
       <c r="D26" s="9">
-        <v>3.04</v>
+        <v>6.68</v>
       </c>
       <c r="E26" s="9">
-        <v>1.62</v>
+        <v>2.41</v>
       </c>
       <c r="F26" s="9">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="G26" s="9">
-        <v>19.78</v>
+        <v>37.01</v>
       </c>
       <c r="H26" s="9">
-        <v>2.16</v>
+        <v>2.44</v>
       </c>
       <c r="I26" s="9">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="J26" s="9">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="K26" s="9">
-        <v>65.959999999999994</v>
+        <v>149.79</v>
       </c>
       <c r="L26" s="9">
-        <v>47.81</v>
+        <v>85.91</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9">
-        <v>3.68</v>
+        <v>0.3</v>
       </c>
       <c r="Q26" s="9">
-        <v>186.87</v>
+        <v>207.22</v>
       </c>
       <c r="R26" s="9">
-        <v>30</v>
+        <v>26.82</v>
       </c>
       <c r="S26" s="9">
-        <v>80.33</v>
+        <v>74.650000000000006</v>
       </c>
       <c r="T26" s="9">
-        <v>1004.76</v>
+        <v>1012.12</v>
       </c>
       <c r="U26" s="9">
         <v>0</v>
@@ -7321,55 +7320,55 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="B27" s="9">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="C27" s="9">
-        <v>4.05</v>
+        <v>7.9</v>
       </c>
       <c r="D27" s="9">
-        <v>2.44</v>
+        <v>5.84</v>
       </c>
       <c r="E27" s="9">
-        <v>1.61</v>
+        <v>2.06</v>
       </c>
       <c r="F27" s="9">
-        <v>0.3</v>
+        <v>0.46</v>
       </c>
       <c r="G27" s="9">
-        <v>19.36</v>
+        <v>34.75</v>
       </c>
       <c r="H27" s="9">
-        <v>2.17</v>
+        <v>2.71</v>
       </c>
       <c r="I27" s="9">
-        <v>2.08</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="J27" s="9">
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
       <c r="K27" s="9">
-        <v>60.21</v>
+        <v>149.77000000000001</v>
       </c>
       <c r="L27" s="9">
-        <v>36.89</v>
+        <v>81.92</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9">
-        <v>4.17</v>
+        <v>0.73</v>
       </c>
       <c r="Q27" s="9">
-        <v>187.69</v>
+        <v>156.19999999999999</v>
       </c>
       <c r="R27" s="9">
-        <v>29.89</v>
+        <v>26.92</v>
       </c>
       <c r="S27" s="9">
-        <v>80.09</v>
+        <v>74.83</v>
       </c>
       <c r="T27" s="9">
-        <v>1004.91</v>
+        <v>1012.12</v>
       </c>
       <c r="U27" s="9">
         <v>0</v>
@@ -7403,55 +7402,55 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="B28" s="9">
-        <v>1.6</v>
+        <v>2.76</v>
       </c>
       <c r="C28" s="9">
-        <v>4.1500000000000004</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="D28" s="9">
-        <v>2.37</v>
+        <v>5.88</v>
       </c>
       <c r="E28" s="9">
-        <v>1.78</v>
+        <v>2.16</v>
       </c>
       <c r="F28" s="9">
-        <v>0.3</v>
+        <v>0.44</v>
       </c>
       <c r="G28" s="9">
-        <v>19.260000000000002</v>
+        <v>28.06</v>
       </c>
       <c r="H28" s="9">
-        <v>2.23</v>
+        <v>3.13</v>
       </c>
       <c r="I28" s="9">
-        <v>2.13</v>
+        <v>2.85</v>
       </c>
       <c r="J28" s="9">
-        <v>0.1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K28" s="9">
-        <v>58.3</v>
+        <v>142.72999999999999</v>
       </c>
       <c r="L28" s="9">
-        <v>36.89</v>
+        <v>87.91</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9">
-        <v>4.8099999999999996</v>
+        <v>1.4</v>
       </c>
       <c r="Q28" s="9">
-        <v>183.76</v>
+        <v>161.62</v>
       </c>
       <c r="R28" s="9">
-        <v>29.84</v>
+        <v>26.56</v>
       </c>
       <c r="S28" s="9">
-        <v>80.55</v>
+        <v>76.930000000000007</v>
       </c>
       <c r="T28" s="9">
-        <v>1004.89</v>
+        <v>1011.89</v>
       </c>
       <c r="U28" s="9">
         <v>0</v>
@@ -7481,59 +7480,59 @@
       </c>
     </row>
     <row r="29" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="9">
-        <v>1.8386359999999999</v>
+        <v>3.1016659999999998</v>
       </c>
       <c r="C29" s="9">
-        <v>7.481363</v>
+        <v>5.1025</v>
       </c>
       <c r="D29" s="9">
-        <v>5.1018179999999997</v>
+        <v>2.8025000000000002</v>
       </c>
       <c r="E29" s="9">
-        <v>2.3813629999999999</v>
+        <v>2.3008329999999999</v>
       </c>
       <c r="F29" s="9">
-        <v>0.32500000000000001</v>
+        <v>0.33541599999999999</v>
       </c>
       <c r="G29" s="9">
-        <v>19.598500000000001</v>
+        <v>50.37</v>
       </c>
       <c r="H29" s="9">
-        <v>2.1971419999999999</v>
+        <v>2.3075000000000001</v>
       </c>
       <c r="I29" s="9">
-        <v>2.091904</v>
+        <v>2.1608329999999998</v>
       </c>
       <c r="J29" s="9">
-        <v>0.104285</v>
+        <v>0.14791599999999999</v>
       </c>
       <c r="K29" s="9">
-        <v>70.157826</v>
+        <v>113.817916</v>
       </c>
       <c r="L29" s="9">
-        <v>42.636189999999999</v>
-      </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
+        <v>62.342500000000001</v>
+      </c>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
       <c r="P29" s="9">
-        <v>4.9187500000000002</v>
+        <v>2.0662500000000001</v>
       </c>
       <c r="Q29" s="9">
-        <v>197.67</v>
+        <v>323.06</v>
       </c>
       <c r="R29" s="9">
-        <v>30.806249999999999</v>
+        <v>26.361249999999998</v>
       </c>
       <c r="S29" s="9">
-        <v>75.186250000000001</v>
+        <v>78.765833000000001</v>
       </c>
       <c r="T29" s="9">
-        <v>1004.295416</v>
+        <v>1011.651666</v>
       </c>
       <c r="U29" s="9">
         <v>0</v>
@@ -7549,59 +7548,59 @@
       <c r="AD29" s="2"/>
     </row>
     <row r="30" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="9">
-        <v>2.82</v>
+        <v>4.42</v>
       </c>
       <c r="C30" s="9">
-        <v>13.15</v>
+        <v>9.92</v>
       </c>
       <c r="D30" s="9">
-        <v>10.81</v>
+        <v>7.68</v>
       </c>
       <c r="E30" s="9">
-        <v>3.88</v>
+        <v>2.66</v>
       </c>
       <c r="F30" s="9">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="G30" s="9">
-        <v>28.47</v>
+        <v>65.2</v>
       </c>
       <c r="H30" s="9">
-        <v>2.5499999999999998</v>
+        <v>3.13</v>
       </c>
       <c r="I30" s="9">
-        <v>2.4</v>
+        <v>2.85</v>
       </c>
       <c r="J30" s="9">
-        <v>0.15</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K30" s="9">
-        <v>104.4</v>
+        <v>152.33000000000001</v>
       </c>
       <c r="L30" s="9">
-        <v>61.82</v>
+        <v>88.91</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9">
-        <v>6.93</v>
-      </c>
-      <c r="Q30" s="14">
-        <v>218.1</v>
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>358.01</v>
       </c>
       <c r="R30" s="9">
-        <v>33.520000000000003</v>
+        <v>27.53</v>
       </c>
       <c r="S30" s="9">
-        <v>84.86</v>
+        <v>86.21</v>
       </c>
       <c r="T30" s="9">
-        <v>1005.55</v>
+        <v>1013.09</v>
       </c>
       <c r="U30" s="9">
         <v>0</v>
@@ -7617,59 +7616,59 @@
       <c r="AD30" s="2"/>
     </row>
     <row r="31" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="9">
-        <v>1.1499999999999999</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="C31" s="9">
-        <v>3.93</v>
+        <v>2.99</v>
       </c>
       <c r="D31" s="9">
-        <v>2.37</v>
+        <v>0.71</v>
       </c>
       <c r="E31" s="9">
-        <v>1.51</v>
+        <v>2.06</v>
       </c>
       <c r="F31" s="9">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G31" s="9">
-        <v>9.36</v>
+        <v>28.06</v>
       </c>
       <c r="H31" s="9">
-        <v>1.89</v>
+        <v>2.17</v>
       </c>
       <c r="I31" s="9">
-        <v>1.81</v>
+        <v>2.04</v>
       </c>
       <c r="J31" s="9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="K31" s="9">
-        <v>58.22</v>
+        <v>96.66</v>
       </c>
       <c r="L31" s="9">
-        <v>31.91</v>
+        <v>46</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9">
-        <v>3.32</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>174.12</v>
+        <v>0.3</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>8.82</v>
       </c>
       <c r="R31" s="9">
-        <v>28.56</v>
+        <v>24.92</v>
       </c>
       <c r="S31" s="9">
-        <v>62.98</v>
+        <v>72.81</v>
       </c>
       <c r="T31" s="9">
-        <v>1002.57</v>
+        <v>1010.28</v>
       </c>
       <c r="U31" s="9">
         <v>0</v>
@@ -7685,41 +7684,41 @@
       <c r="AD31" s="2"/>
     </row>
     <row r="32" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="9">
-        <v>91.67</v>
+        <v>100</v>
       </c>
       <c r="C32" s="9">
-        <v>91.67</v>
+        <v>100</v>
       </c>
       <c r="D32" s="9">
-        <v>91.67</v>
+        <v>100</v>
       </c>
       <c r="E32" s="9">
-        <v>91.67</v>
+        <v>100</v>
       </c>
       <c r="F32" s="9">
-        <v>91.67</v>
+        <v>100</v>
       </c>
       <c r="G32" s="9">
-        <v>83.33</v>
+        <v>100</v>
       </c>
       <c r="H32" s="9">
-        <v>87.5</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9">
-        <v>87.5</v>
+        <v>100</v>
       </c>
       <c r="J32" s="9">
-        <v>87.5</v>
+        <v>100</v>
       </c>
       <c r="K32" s="9">
-        <v>95.83</v>
+        <v>100</v>
       </c>
       <c r="L32" s="9">
-        <v>87.5</v>
+        <v>100</v>
       </c>
       <c r="M32" s="9">
         <v>0</v>
@@ -7746,7 +7745,7 @@
         <v>100</v>
       </c>
       <c r="U32" s="9">
-        <v>87.5</v>
+        <v>100</v>
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
@@ -7759,67 +7758,67 @@
       <c r="AD32" s="2"/>
     </row>
     <row r="33" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="12">
         <v>250</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="12">
         <v>250</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="12">
         <v>35</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="12">
         <v>120</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="J33" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="12">
         <v>250</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="12">
         <v>125</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="12">
         <v>35</v>
       </c>
-      <c r="N33" s="14" t="s">
+      <c r="N33" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="14" t="s">
+      <c r="O33" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="P33" s="14" t="s">
+      <c r="P33" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="14" t="s">
+      <c r="Q33" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="R33" s="14" t="s">
+      <c r="R33" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S33" s="14" t="s">
+      <c r="S33" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T33" s="14" t="s">
+      <c r="T33" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="U33" s="14" t="s">
+      <c r="U33" s="12" t="s">
         <v>32</v>
       </c>
       <c r="V33" s="2"/>
@@ -7833,67 +7832,67 @@
       <c r="AD33" s="2"/>
     </row>
     <row r="34" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="12">
         <v>0</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="12">
         <v>0</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="12">
         <v>0</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="12">
         <v>0</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="12">
         <v>0</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="12">
         <v>0</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M34" s="12">
         <v>0</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="N34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="14" t="s">
+      <c r="O34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="P34" s="14" t="s">
+      <c r="P34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q34" s="14" t="s">
+      <c r="Q34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="R34" s="14" t="s">
+      <c r="R34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S34" s="14" t="s">
+      <c r="S34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T34" s="14" t="s">
+      <c r="T34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="U34" s="14" t="s">
+      <c r="U34" s="12" t="s">
         <v>32</v>
       </c>
       <c r="V34" s="2"/>
@@ -7907,67 +7906,67 @@
       <c r="AD34" s="2"/>
     </row>
     <row r="35" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="12">
         <v>0</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="12">
         <v>0</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="12">
         <v>0</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="12">
         <v>0</v>
       </c>
-      <c r="H35" s="14" t="s">
+      <c r="H35" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K35" s="12">
         <v>0</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="12">
         <v>0</v>
       </c>
-      <c r="M35" s="14">
+      <c r="M35" s="12">
         <v>0</v>
       </c>
-      <c r="N35" s="14" t="s">
+      <c r="N35" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O35" s="14" t="s">
+      <c r="O35" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="P35" s="14" t="s">
+      <c r="P35" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q35" s="14" t="s">
+      <c r="Q35" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="R35" s="14" t="s">
+      <c r="R35" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S35" s="14" t="s">
+      <c r="S35" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T35" s="14" t="s">
+      <c r="T35" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="U35" s="14" t="s">
+      <c r="U35" s="12" t="s">
         <v>32</v>
       </c>
       <c r="V35" s="2"/>
@@ -7981,29 +7980,29 @@
       <c r="AD35" s="2"/>
     </row>
     <row r="36" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -8015,27 +8014,27 @@
       <c r="AD36" s="2"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -8047,27 +8046,27 @@
       <c r="AD37" s="2"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -8079,27 +8078,27 @@
       <c r="AD38" s="2"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -8111,27 +8110,27 @@
       <c r="AD39" s="2"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>

--- a/report_template/daily_report.xlsx
+++ b/report_template/daily_report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="640">
   <si>
     <t>監測日報表</t>
   </si>
@@ -168,6 +168,1794 @@
   </si>
   <si>
     <t>不可抗力</t>
+  </si>
+  <si>
+    <t>監測站:大城站</t>
+  </si>
+  <si>
+    <t>1.86</t>
+  </si>
+  <si>
+    <t>1.94</t>
+  </si>
+  <si>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>2.57</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>2.71</t>
+  </si>
+  <si>
+    <t>3.01</t>
+  </si>
+  <si>
+    <t>2.79</t>
+  </si>
+  <si>
+    <t>2.61</t>
+  </si>
+  <si>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>2.51</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>3.64</t>
+  </si>
+  <si>
+    <t>5.71</t>
+  </si>
+  <si>
+    <t>6.46</t>
+  </si>
+  <si>
+    <t>6.45</t>
+  </si>
+  <si>
+    <t>6.76</t>
+  </si>
+  <si>
+    <t>11.93</t>
+  </si>
+  <si>
+    <t>11.22</t>
+  </si>
+  <si>
+    <t>12.31</t>
+  </si>
+  <si>
+    <t>14.37</t>
+  </si>
+  <si>
+    <t>10.89</t>
+  </si>
+  <si>
+    <t>17.27</t>
+  </si>
+  <si>
+    <t>8.79</t>
+  </si>
+  <si>
+    <t>9.15</t>
+  </si>
+  <si>
+    <t>5.30</t>
+  </si>
+  <si>
+    <t>4.35</t>
+  </si>
+  <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>5.78</t>
+  </si>
+  <si>
+    <t>5.44</t>
+  </si>
+  <si>
+    <t>5.57</t>
+  </si>
+  <si>
+    <t>6.49</t>
+  </si>
+  <si>
+    <t>8.03</t>
+  </si>
+  <si>
+    <t>10.42</t>
+  </si>
+  <si>
+    <t>13.76</t>
+  </si>
+  <si>
+    <t>16.88</t>
+  </si>
+  <si>
+    <t>18.25</t>
+  </si>
+  <si>
+    <t>3.94</t>
+  </si>
+  <si>
+    <t>4.93</t>
+  </si>
+  <si>
+    <t>4.81</t>
+  </si>
+  <si>
+    <t>5.05</t>
+  </si>
+  <si>
+    <t>10.14</t>
+  </si>
+  <si>
+    <t>9.38</t>
+  </si>
+  <si>
+    <t>9.91</t>
+  </si>
+  <si>
+    <t>11.52</t>
+  </si>
+  <si>
+    <t>7.72</t>
+  </si>
+  <si>
+    <t>11.87</t>
+  </si>
+  <si>
+    <t>6.19</t>
+  </si>
+  <si>
+    <t>6.21</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>3.58</t>
+  </si>
+  <si>
+    <t>3.92</t>
+  </si>
+  <si>
+    <t>4.68</t>
+  </si>
+  <si>
+    <t>6.36</t>
+  </si>
+  <si>
+    <t>8.58</t>
+  </si>
+  <si>
+    <t>11.82</t>
+  </si>
+  <si>
+    <t>14.94</t>
+  </si>
+  <si>
+    <t>16.35</t>
+  </si>
+  <si>
+    <t>1.77</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>1.64</t>
+  </si>
+  <si>
+    <t>1.71</t>
+  </si>
+  <si>
+    <t>1.79</t>
+  </si>
+  <si>
+    <t>1.84</t>
+  </si>
+  <si>
+    <t>2.41</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>5.40</t>
+  </si>
+  <si>
+    <t>2.94</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>1.81</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>24.14</t>
+  </si>
+  <si>
+    <t>18.86</t>
+  </si>
+  <si>
+    <t>19.80</t>
+  </si>
+  <si>
+    <t>17.85</t>
+  </si>
+  <si>
+    <t>17.09</t>
+  </si>
+  <si>
+    <t>19.10</t>
+  </si>
+  <si>
+    <t>21.56</t>
+  </si>
+  <si>
+    <t>26.77</t>
+  </si>
+  <si>
+    <t>29.05</t>
+  </si>
+  <si>
+    <t>37.36</t>
+  </si>
+  <si>
+    <t>38.59</t>
+  </si>
+  <si>
+    <t>49.21</t>
+  </si>
+  <si>
+    <t>51.03</t>
+  </si>
+  <si>
+    <t>52.78</t>
+  </si>
+  <si>
+    <t>64.54</t>
+  </si>
+  <si>
+    <t>60.47</t>
+  </si>
+  <si>
+    <t>54.79</t>
+  </si>
+  <si>
+    <t>53.24</t>
+  </si>
+  <si>
+    <t>47.77</t>
+  </si>
+  <si>
+    <t>37.63</t>
+  </si>
+  <si>
+    <t>27.51</t>
+  </si>
+  <si>
+    <t>18.89</t>
+  </si>
+  <si>
+    <t>14.78</t>
+  </si>
+  <si>
+    <t>2.72</t>
+  </si>
+  <si>
+    <t>2.64</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>2.31</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>2.99</t>
+  </si>
+  <si>
+    <t>2.59</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>50.58</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>47.70</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>70.74</t>
+  </si>
+  <si>
+    <t>67.86</t>
+  </si>
+  <si>
+    <t>61.14</t>
+  </si>
+  <si>
+    <t>60.18</t>
+  </si>
+  <si>
+    <t>75.54</t>
+  </si>
+  <si>
+    <t>48.66</t>
+  </si>
+  <si>
+    <t>64.98</t>
+  </si>
+  <si>
+    <t>62.10</t>
+  </si>
+  <si>
+    <t>58.26</t>
+  </si>
+  <si>
+    <t>61.60</t>
+  </si>
+  <si>
+    <t>79.38</t>
+  </si>
+  <si>
+    <t>89.94</t>
+  </si>
+  <si>
+    <t>94.74</t>
+  </si>
+  <si>
+    <t>117.77</t>
+  </si>
+  <si>
+    <t>129.29</t>
+  </si>
+  <si>
+    <t>9.08</t>
+  </si>
+  <si>
+    <t>6.09</t>
+  </si>
+  <si>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>8.08</t>
+  </si>
+  <si>
+    <t>23.05</t>
+  </si>
+  <si>
+    <t>29.04</t>
+  </si>
+  <si>
+    <t>15.07</t>
+  </si>
+  <si>
+    <t>14.07</t>
+  </si>
+  <si>
+    <t>26.04</t>
+  </si>
+  <si>
+    <t>12.08</t>
+  </si>
+  <si>
+    <t>15.67</t>
+  </si>
+  <si>
+    <t>20.06</t>
+  </si>
+  <si>
+    <t>28.04</t>
+  </si>
+  <si>
+    <t>18.06</t>
+  </si>
+  <si>
+    <t>37.02</t>
+  </si>
+  <si>
+    <t>35.03</t>
+  </si>
+  <si>
+    <t>42.43</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>56.98</t>
+  </si>
+  <si>
+    <t>63.96</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>2.49</t>
+  </si>
+  <si>
+    <t>3.70</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>4.96</t>
+  </si>
+  <si>
+    <t>5.90</t>
+  </si>
+  <si>
+    <t>6.12</t>
+  </si>
+  <si>
+    <t>5.37</t>
+  </si>
+  <si>
+    <t>6.42</t>
+  </si>
+  <si>
+    <t>4.92</t>
+  </si>
+  <si>
+    <t>4.02</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
+    <t>155.96</t>
+  </si>
+  <si>
+    <t>147.63</t>
+  </si>
+  <si>
+    <t>110.85</t>
+  </si>
+  <si>
+    <t>92.09</t>
+  </si>
+  <si>
+    <t>20.94</t>
+  </si>
+  <si>
+    <t>19.46</t>
+  </si>
+  <si>
+    <t>348.46</t>
+  </si>
+  <si>
+    <t>11.39</t>
+  </si>
+  <si>
+    <t>4.83</t>
+  </si>
+  <si>
+    <t>345.69</t>
+  </si>
+  <si>
+    <t>349.43</t>
+  </si>
+  <si>
+    <t>342.62</t>
+  </si>
+  <si>
+    <t>344.40</t>
+  </si>
+  <si>
+    <t>346.76</t>
+  </si>
+  <si>
+    <t>349.79</t>
+  </si>
+  <si>
+    <t>345.09</t>
+  </si>
+  <si>
+    <t>353.50</t>
+  </si>
+  <si>
+    <t>354.50</t>
+  </si>
+  <si>
+    <t>357.32</t>
+  </si>
+  <si>
+    <t>10.76</t>
+  </si>
+  <si>
+    <t>36.74</t>
+  </si>
+  <si>
+    <t>348.55</t>
+  </si>
+  <si>
+    <t>25.15</t>
+  </si>
+  <si>
+    <t>25.19</t>
+  </si>
+  <si>
+    <t>25.25</t>
+  </si>
+  <si>
+    <t>25.16</t>
+  </si>
+  <si>
+    <t>25.03</t>
+  </si>
+  <si>
+    <t>24.89</t>
+  </si>
+  <si>
+    <t>25.01</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.30</t>
+  </si>
+  <si>
+    <t>26.39</t>
+  </si>
+  <si>
+    <t>26.27</t>
+  </si>
+  <si>
+    <t>27.05</t>
+  </si>
+  <si>
+    <t>27.63</t>
+  </si>
+  <si>
+    <t>27.78</t>
+  </si>
+  <si>
+    <t>27.60</t>
+  </si>
+  <si>
+    <t>27.56</t>
+  </si>
+  <si>
+    <t>27.48</t>
+  </si>
+  <si>
+    <t>27.11</t>
+  </si>
+  <si>
+    <t>26.86</t>
+  </si>
+  <si>
+    <t>26.64</t>
+  </si>
+  <si>
+    <t>26.53</t>
+  </si>
+  <si>
+    <t>26.40</t>
+  </si>
+  <si>
+    <t>26.23</t>
+  </si>
+  <si>
+    <t>96.67</t>
+  </si>
+  <si>
+    <t>96.72</t>
+  </si>
+  <si>
+    <t>96.77</t>
+  </si>
+  <si>
+    <t>96.79</t>
+  </si>
+  <si>
+    <t>96.74</t>
+  </si>
+  <si>
+    <t>96.52</t>
+  </si>
+  <si>
+    <t>96.36</t>
+  </si>
+  <si>
+    <t>96.12</t>
+  </si>
+  <si>
+    <t>94.34</t>
+  </si>
+  <si>
+    <t>87.45</t>
+  </si>
+  <si>
+    <t>85.16</t>
+  </si>
+  <si>
+    <t>81.66</t>
+  </si>
+  <si>
+    <t>78.94</t>
+  </si>
+  <si>
+    <t>78.97</t>
+  </si>
+  <si>
+    <t>79.41</t>
+  </si>
+  <si>
+    <t>80.59</t>
+  </si>
+  <si>
+    <t>80.63</t>
+  </si>
+  <si>
+    <t>81.14</t>
+  </si>
+  <si>
+    <t>81.61</t>
+  </si>
+  <si>
+    <t>82.63</t>
+  </si>
+  <si>
+    <t>83.26</t>
+  </si>
+  <si>
+    <t>84.13</t>
+  </si>
+  <si>
+    <t>84.74</t>
+  </si>
+  <si>
+    <t>85.92</t>
+  </si>
+  <si>
+    <t>1006.29</t>
+  </si>
+  <si>
+    <t>1005.91</t>
+  </si>
+  <si>
+    <t>1005.66</t>
+  </si>
+  <si>
+    <t>1005.79</t>
+  </si>
+  <si>
+    <t>1005.96</t>
+  </si>
+  <si>
+    <t>1006.44</t>
+  </si>
+  <si>
+    <t>1007.12</t>
+  </si>
+  <si>
+    <t>1007.55</t>
+  </si>
+  <si>
+    <t>1007.88</t>
+  </si>
+  <si>
+    <t>1008.40</t>
+  </si>
+  <si>
+    <t>1008.38</t>
+  </si>
+  <si>
+    <t>1008.07</t>
+  </si>
+  <si>
+    <t>1007.73</t>
+  </si>
+  <si>
+    <t>1007.21</t>
+  </si>
+  <si>
+    <t>1007.05</t>
+  </si>
+  <si>
+    <t>1007.23</t>
+  </si>
+  <si>
+    <t>1007.92</t>
+  </si>
+  <si>
+    <t>1008.66</t>
+  </si>
+  <si>
+    <t>1009.17</t>
+  </si>
+  <si>
+    <t>1009.70</t>
+  </si>
+  <si>
+    <t>1010.33</t>
+  </si>
+  <si>
+    <t>1010.73</t>
+  </si>
+  <si>
+    <t>1010.55</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>2.89</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>3.56</t>
+  </si>
+  <si>
+    <t>4.45</t>
+  </si>
+  <si>
+    <t>3.96</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>2.76</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>25.49</t>
+  </si>
+  <si>
+    <t>28.18</t>
+  </si>
+  <si>
+    <t>20.47</t>
+  </si>
+  <si>
+    <t>13.72</t>
+  </si>
+  <si>
+    <t>13.40</t>
+  </si>
+  <si>
+    <t>10.73</t>
+  </si>
+  <si>
+    <t>12.61</t>
+  </si>
+  <si>
+    <t>11.75</t>
+  </si>
+  <si>
+    <t>8.42</t>
+  </si>
+  <si>
+    <t>16.38</t>
+  </si>
+  <si>
+    <t>14.05</t>
+  </si>
+  <si>
+    <t>12.57</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>9.71</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>5.38</t>
+  </si>
+  <si>
+    <t>7.42</t>
+  </si>
+  <si>
+    <t>8.36</t>
+  </si>
+  <si>
+    <t>8.69</t>
+  </si>
+  <si>
+    <t>7.88</t>
+  </si>
+  <si>
+    <t>4.40</t>
+  </si>
+  <si>
+    <t>4.18</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>19.15</t>
+  </si>
+  <si>
+    <t>23.31</t>
+  </si>
+  <si>
+    <t>25.74</t>
+  </si>
+  <si>
+    <t>18.24</t>
+  </si>
+  <si>
+    <t>11.98</t>
+  </si>
+  <si>
+    <t>8.35</t>
+  </si>
+  <si>
+    <t>10.24</t>
+  </si>
+  <si>
+    <t>8.87</t>
+  </si>
+  <si>
+    <t>6.48</t>
+  </si>
+  <si>
+    <t>13.56</t>
+  </si>
+  <si>
+    <t>11.76</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>6.28</t>
+  </si>
+  <si>
+    <t>7.84</t>
+  </si>
+  <si>
+    <t>6.73</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>6.61</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.43</t>
+  </si>
+  <si>
+    <t>1.74</t>
+  </si>
+  <si>
+    <t>2.82</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>1.93</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>5.96</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.63</t>
+  </si>
+  <si>
+    <t>11.55</t>
+  </si>
+  <si>
+    <t>9.73</t>
+  </si>
+  <si>
+    <t>20.52</t>
+  </si>
+  <si>
+    <t>13.19</t>
+  </si>
+  <si>
+    <t>21.83</t>
+  </si>
+  <si>
+    <t>48.35</t>
+  </si>
+  <si>
+    <t>29.56</t>
+  </si>
+  <si>
+    <t>41.02</t>
+  </si>
+  <si>
+    <t>47.27</t>
+  </si>
+  <si>
+    <t>64.10</t>
+  </si>
+  <si>
+    <t>61.37</t>
+  </si>
+  <si>
+    <t>48.16</t>
+  </si>
+  <si>
+    <t>24.32</t>
+  </si>
+  <si>
+    <t>28.05</t>
+  </si>
+  <si>
+    <t>35.84</t>
+  </si>
+  <si>
+    <t>13.30</t>
+  </si>
+  <si>
+    <t>9.70</t>
+  </si>
+  <si>
+    <t>15.16</t>
+  </si>
+  <si>
+    <t>21.68</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>3.44</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>2.37</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>2.69</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>3.19</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>137.93</t>
+  </si>
+  <si>
+    <t>139.29</t>
+  </si>
+  <si>
+    <t>134.09</t>
+  </si>
+  <si>
+    <t>152.33</t>
+  </si>
+  <si>
+    <t>157.13</t>
+  </si>
+  <si>
+    <t>118.73</t>
+  </si>
+  <si>
+    <t>113.93</t>
+  </si>
+  <si>
+    <t>121.61</t>
+  </si>
+  <si>
+    <t>135.05</t>
+  </si>
+  <si>
+    <t>123.53</t>
+  </si>
+  <si>
+    <t>147.53</t>
+  </si>
+  <si>
+    <t>88.02</t>
+  </si>
+  <si>
+    <t>105.29</t>
+  </si>
+  <si>
+    <t>45.78</t>
+  </si>
+  <si>
+    <t>57.30</t>
+  </si>
+  <si>
+    <t>73.62</t>
+  </si>
+  <si>
+    <t>40.02</t>
+  </si>
+  <si>
+    <t>46.40</t>
+  </si>
+  <si>
+    <t>49.62</t>
+  </si>
+  <si>
+    <t>70.15</t>
+  </si>
+  <si>
+    <t>71.94</t>
+  </si>
+  <si>
+    <t>72.94</t>
+  </si>
+  <si>
+    <t>75.93</t>
+  </si>
+  <si>
+    <t>89.90</t>
+  </si>
+  <si>
+    <t>76.93</t>
+  </si>
+  <si>
+    <t>74.94</t>
+  </si>
+  <si>
+    <t>65.96</t>
+  </si>
+  <si>
+    <t>54.98</t>
+  </si>
+  <si>
+    <t>68.95</t>
+  </si>
+  <si>
+    <t>80.92</t>
+  </si>
+  <si>
+    <t>79.93</t>
+  </si>
+  <si>
+    <t>48.99</t>
+  </si>
+  <si>
+    <t>24.05</t>
+  </si>
+  <si>
+    <t>10.08</t>
+  </si>
+  <si>
+    <t>13.07</t>
+  </si>
+  <si>
+    <t>16.07</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>3.51</t>
+  </si>
+  <si>
+    <t>4.76</t>
+  </si>
+  <si>
+    <t>3.63</t>
+  </si>
+  <si>
+    <t>52.30</t>
+  </si>
+  <si>
+    <t>84.06</t>
+  </si>
+  <si>
+    <t>163.96</t>
+  </si>
+  <si>
+    <t>94.59</t>
+  </si>
+  <si>
+    <t>192.64</t>
+  </si>
+  <si>
+    <t>96.69</t>
+  </si>
+  <si>
+    <t>127.54</t>
+  </si>
+  <si>
+    <t>140.38</t>
+  </si>
+  <si>
+    <t>135.10</t>
+  </si>
+  <si>
+    <t>159.09</t>
+  </si>
+  <si>
+    <t>222.22</t>
+  </si>
+  <si>
+    <t>295.31</t>
+  </si>
+  <si>
+    <t>267.39</t>
+  </si>
+  <si>
+    <t>298.45</t>
+  </si>
+  <si>
+    <t>324.06</t>
+  </si>
+  <si>
+    <t>281.02</t>
+  </si>
+  <si>
+    <t>180.03</t>
+  </si>
+  <si>
+    <t>166.94</t>
+  </si>
+  <si>
+    <t>159.98</t>
+  </si>
+  <si>
+    <t>174.73</t>
+  </si>
+  <si>
+    <t>170.49</t>
+  </si>
+  <si>
+    <t>178.97</t>
+  </si>
+  <si>
+    <t>157.32</t>
+  </si>
+  <si>
+    <t>160.20</t>
+  </si>
+  <si>
+    <t>26.12</t>
+  </si>
+  <si>
+    <t>26.03</t>
+  </si>
+  <si>
+    <t>25.93</t>
+  </si>
+  <si>
+    <t>25.90</t>
+  </si>
+  <si>
+    <t>25.75</t>
+  </si>
+  <si>
+    <t>25.82</t>
+  </si>
+  <si>
+    <t>26.62</t>
+  </si>
+  <si>
+    <t>28.37</t>
+  </si>
+  <si>
+    <t>28.07</t>
+  </si>
+  <si>
+    <t>27.70</t>
+  </si>
+  <si>
+    <t>27.12</t>
+  </si>
+  <si>
+    <t>26.97</t>
+  </si>
+  <si>
+    <t>26.61</t>
+  </si>
+  <si>
+    <t>26.63</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>26.98</t>
+  </si>
+  <si>
+    <t>26.93</t>
+  </si>
+  <si>
+    <t>26.78</t>
+  </si>
+  <si>
+    <t>25.79</t>
+  </si>
+  <si>
+    <t>25.47</t>
+  </si>
+  <si>
+    <t>25.24</t>
+  </si>
+  <si>
+    <t>86.37</t>
+  </si>
+  <si>
+    <t>87.04</t>
+  </si>
+  <si>
+    <t>87.12</t>
+  </si>
+  <si>
+    <t>88.74</t>
+  </si>
+  <si>
+    <t>89.92</t>
+  </si>
+  <si>
+    <t>90.91</t>
+  </si>
+  <si>
+    <t>90.74</t>
+  </si>
+  <si>
+    <t>88.90</t>
+  </si>
+  <si>
+    <t>87.92</t>
+  </si>
+  <si>
+    <t>81.42</t>
+  </si>
+  <si>
+    <t>82.68</t>
+  </si>
+  <si>
+    <t>88.22</t>
+  </si>
+  <si>
+    <t>89.52</t>
+  </si>
+  <si>
+    <t>91.56</t>
+  </si>
+  <si>
+    <t>92.81</t>
+  </si>
+  <si>
+    <t>91.49</t>
+  </si>
+  <si>
+    <t>91.33</t>
+  </si>
+  <si>
+    <t>89.97</t>
+  </si>
+  <si>
+    <t>89.30</t>
+  </si>
+  <si>
+    <t>90.76</t>
+  </si>
+  <si>
+    <t>92.97</t>
+  </si>
+  <si>
+    <t>94.35</t>
+  </si>
+  <si>
+    <t>95.19</t>
+  </si>
+  <si>
+    <t>1010.25</t>
+  </si>
+  <si>
+    <t>1009.73</t>
+  </si>
+  <si>
+    <t>1009.45</t>
+  </si>
+  <si>
+    <t>1009.58</t>
+  </si>
+  <si>
+    <t>1010.01</t>
+  </si>
+  <si>
+    <t>1010.21</t>
+  </si>
+  <si>
+    <t>1010.66</t>
+  </si>
+  <si>
+    <t>1011.15</t>
+  </si>
+  <si>
+    <t>1011.24</t>
+  </si>
+  <si>
+    <t>1011.51</t>
+  </si>
+  <si>
+    <t>1011.33</t>
+  </si>
+  <si>
+    <t>1010.93</t>
+  </si>
+  <si>
+    <t>1010.46</t>
+  </si>
+  <si>
+    <t>1009.77</t>
+  </si>
+  <si>
+    <t>1009.40</t>
+  </si>
+  <si>
+    <t>1009.16</t>
+  </si>
+  <si>
+    <t>1009.05</t>
+  </si>
+  <si>
+    <t>1009.06</t>
+  </si>
+  <si>
+    <t>1009.02</t>
+  </si>
+  <si>
+    <t>1009.41</t>
+  </si>
+  <si>
+    <t>1009.91</t>
+  </si>
+  <si>
+    <t>1010.56</t>
+  </si>
+  <si>
+    <t>1010.81</t>
+  </si>
+  <si>
+    <t>1010.71</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>資料日期:2015/05/25</t>
   </si>
 </sst>
 </file>
@@ -5296,9 +7084,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="11.125" customWidth="1"/>
-    <col min="13" max="15" width="11.125" hidden="1" customWidth="1"/>
-    <col min="16" max="30" width="11.125" customWidth="1"/>
+    <col min="1" max="12" customWidth="true" width="11.125" collapsed="true"/>
+    <col min="13" max="15" customWidth="true" hidden="true" width="11.125" collapsed="true"/>
+    <col min="16" max="30" customWidth="true" width="11.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5373,7 +7161,7 @@
     </row>
     <row r="3" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -5403,7 +7191,7 @@
         <v>41</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>42</v>
+        <v>639</v>
       </c>
       <c r="R3" s="21" t="s">
         <v>43</v>
@@ -5515,50 +7303,56 @@
       <c r="A5" s="8">
         <v>0</v>
       </c>
-      <c r="B5" s="9">
-        <v>3.58</v>
-      </c>
-      <c r="C5" s="9">
-        <v>7.47</v>
-      </c>
-      <c r="D5" s="9">
-        <v>5.08</v>
-      </c>
-      <c r="E5" s="9">
-        <v>2.39</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G5" s="9">
-        <v>43.89</v>
-      </c>
-      <c r="H5" s="9">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I5" s="9">
-        <v>2.11</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="K5" s="9">
-        <v>104.33</v>
-      </c>
-      <c r="L5" s="9">
-        <v>52.99</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9">
-        <v>1.56</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>309.38</v>
-      </c>
-      <c r="R5" s="9">
-        <v>25.79</v>
+      <c r="B5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S5" s="9">
         <v>83.33</v>
@@ -5597,50 +7391,56 @@
       <c r="A6" s="8">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="B6" s="9">
-        <v>2.66</v>
-      </c>
-      <c r="C6" s="9">
-        <v>3.79</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1.67</v>
-      </c>
-      <c r="E6" s="9">
-        <v>2.12</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G6" s="9">
-        <v>49.05</v>
-      </c>
-      <c r="H6" s="9">
-        <v>2.27</v>
-      </c>
-      <c r="I6" s="9">
-        <v>2.14</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0.13</v>
-      </c>
-      <c r="K6" s="9">
-        <v>101.45</v>
-      </c>
-      <c r="L6" s="9">
-        <v>49.99</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9">
-        <v>1.05</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>302.95999999999998</v>
-      </c>
-      <c r="R6" s="9">
-        <v>25.62</v>
+      <c r="B6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S6" s="9">
         <v>83.42</v>
@@ -5679,50 +7479,56 @@
       <c r="A7" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="B7" s="9">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="C7" s="9">
-        <v>3.6</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1.43</v>
-      </c>
-      <c r="E7" s="9">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G7" s="9">
-        <v>44.37</v>
-      </c>
-      <c r="H7" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I7" s="9">
-        <v>2.1</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="K7" s="9">
-        <v>96.66</v>
-      </c>
-      <c r="L7" s="9">
-        <v>46</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9">
-        <v>0.88</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>241.82</v>
-      </c>
-      <c r="R7" s="9">
-        <v>25.35</v>
+      <c r="B7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S7" s="9">
         <v>84.32</v>
@@ -5761,50 +7567,56 @@
       <c r="A8" s="8">
         <v>0.125</v>
       </c>
-      <c r="B8" s="9">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="C8" s="9">
-        <v>4.09</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="E8" s="9">
-        <v>2.39</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G8" s="9">
-        <v>45.13</v>
-      </c>
-      <c r="H8" s="9">
-        <v>2.19</v>
-      </c>
-      <c r="I8" s="9">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="K8" s="9">
-        <v>104.33</v>
-      </c>
-      <c r="L8" s="9">
-        <v>54.98</v>
-      </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9">
-        <v>1.82</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>277.25</v>
-      </c>
-      <c r="R8" s="9">
-        <v>25.16</v>
+      <c r="B8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S8" s="9">
         <v>86</v>
@@ -5843,50 +7655,56 @@
       <c r="A9" s="8">
         <v>0.16666666666666666</v>
       </c>
-      <c r="B9" s="9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9">
-        <v>4.22</v>
-      </c>
-      <c r="D9" s="9">
-        <v>2.1</v>
-      </c>
-      <c r="E9" s="9">
-        <v>2.12</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G9" s="9">
-        <v>48.72</v>
-      </c>
-      <c r="H9" s="9">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="I9" s="9">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0.11</v>
-      </c>
-      <c r="K9" s="9">
-        <v>100.49</v>
-      </c>
-      <c r="L9" s="9">
-        <v>55.73</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9">
-        <v>2.1</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>286.73</v>
-      </c>
-      <c r="R9" s="9">
-        <v>25.14</v>
+      <c r="B9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S9" s="9">
         <v>86.21</v>
@@ -5925,50 +7743,56 @@
       <c r="A10" s="8">
         <v>0.20833333333333334</v>
       </c>
-      <c r="B10" s="9">
-        <v>3.34</v>
-      </c>
-      <c r="C10" s="9">
-        <v>4.37</v>
-      </c>
-      <c r="D10" s="9">
-        <v>2.09</v>
-      </c>
-      <c r="E10" s="9">
-        <v>2.27</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G10" s="9">
-        <v>46.75</v>
-      </c>
-      <c r="H10" s="9">
-        <v>2.25</v>
-      </c>
-      <c r="I10" s="9">
-        <v>2.12</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K10" s="9">
-        <v>104.33</v>
-      </c>
-      <c r="L10" s="9">
-        <v>56.98</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9">
-        <v>1.45</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>293.11</v>
-      </c>
-      <c r="R10" s="9">
-        <v>24.92</v>
+      <c r="B10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>354</v>
       </c>
       <c r="S10" s="9">
         <v>86.16</v>
@@ -6007,50 +7831,56 @@
       <c r="A11" s="8">
         <v>0.25</v>
       </c>
-      <c r="B11" s="9">
-        <v>2.79</v>
-      </c>
-      <c r="C11" s="9">
-        <v>3.65</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="E11" s="9">
-        <v>2.16</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="G11" s="9">
-        <v>48.33</v>
-      </c>
-      <c r="H11" s="9">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I11" s="9">
-        <v>2.13</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="K11" s="9">
-        <v>105.29</v>
-      </c>
-      <c r="L11" s="9">
-        <v>57.97</v>
-      </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9">
-        <v>1.44</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>296.70999999999998</v>
-      </c>
-      <c r="R11" s="9">
-        <v>25.2</v>
+      <c r="B11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>355</v>
       </c>
       <c r="S11" s="9">
         <v>85.38</v>
@@ -6089,50 +7919,56 @@
       <c r="A12" s="8">
         <v>0.29166666666666669</v>
       </c>
-      <c r="B12" s="9">
-        <v>2.72</v>
-      </c>
-      <c r="C12" s="9">
-        <v>3.82</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1.57</v>
-      </c>
-      <c r="E12" s="9">
-        <v>2.25</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="G12" s="9">
-        <v>51.12</v>
-      </c>
-      <c r="H12" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I12" s="9">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0.13</v>
-      </c>
-      <c r="K12" s="9">
-        <v>108.17</v>
-      </c>
-      <c r="L12" s="9">
-        <v>50.99</v>
-      </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>284.95</v>
-      </c>
-      <c r="R12" s="9">
-        <v>26.58</v>
+      <c r="B12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S12" s="9">
         <v>80.17</v>
@@ -6171,50 +8007,56 @@
       <c r="A13" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B13" s="9">
-        <v>4.42</v>
-      </c>
-      <c r="C13" s="9">
-        <v>7.47</v>
-      </c>
-      <c r="D13" s="9">
-        <v>4.83</v>
-      </c>
-      <c r="E13" s="9">
-        <v>2.65</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0.31</v>
-      </c>
-      <c r="G13" s="9">
-        <v>48.09</v>
-      </c>
-      <c r="H13" s="9">
-        <v>2.19</v>
-      </c>
-      <c r="I13" s="9">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="K13" s="9">
-        <v>105.29</v>
-      </c>
-      <c r="L13" s="9">
-        <v>57.97</v>
-      </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9">
-        <v>1.81</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>299.81</v>
-      </c>
-      <c r="R13" s="9">
-        <v>27.1</v>
+      <c r="B13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S13" s="9">
         <v>75.77</v>
@@ -6253,50 +8095,56 @@
       <c r="A14" s="8">
         <v>0.375</v>
       </c>
-      <c r="B14" s="9">
-        <v>3.67</v>
-      </c>
-      <c r="C14" s="9">
-        <v>5.35</v>
-      </c>
-      <c r="D14" s="9">
-        <v>2.86</v>
-      </c>
-      <c r="E14" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0.31</v>
-      </c>
-      <c r="G14" s="9">
-        <v>52.87</v>
-      </c>
-      <c r="H14" s="9">
-        <v>2.21</v>
-      </c>
-      <c r="I14" s="9">
-        <v>2.08</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0.13</v>
-      </c>
-      <c r="K14" s="9">
-        <v>107.21</v>
-      </c>
-      <c r="L14" s="9">
-        <v>55.98</v>
-      </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9">
-        <v>2.11</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>309.67</v>
-      </c>
-      <c r="R14" s="9">
-        <v>27.37</v>
+      <c r="B14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S14" s="9">
         <v>73.92</v>
@@ -6335,50 +8183,56 @@
       <c r="A15" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B15" s="9">
-        <v>3.4</v>
-      </c>
-      <c r="C15" s="9">
-        <v>4.3</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1.64</v>
-      </c>
-      <c r="E15" s="9">
-        <v>2.66</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0.31</v>
-      </c>
-      <c r="G15" s="9">
-        <v>55.37</v>
-      </c>
-      <c r="H15" s="9">
-        <v>2.21</v>
-      </c>
-      <c r="I15" s="9">
-        <v>2.08</v>
-      </c>
-      <c r="J15" s="9">
-        <v>0.13</v>
-      </c>
-      <c r="K15" s="9">
-        <v>98.08</v>
-      </c>
-      <c r="L15" s="9">
-        <v>51.94</v>
-      </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>320.97000000000003</v>
-      </c>
-      <c r="R15" s="9">
-        <v>27.53</v>
+      <c r="B15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S15" s="9">
         <v>72.819999999999993</v>
@@ -6417,50 +8271,56 @@
       <c r="A16" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B16" s="9">
-        <v>4.34</v>
-      </c>
-      <c r="C16" s="9">
-        <v>4.43</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1.98</v>
-      </c>
-      <c r="E16" s="9">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0.31</v>
-      </c>
-      <c r="G16" s="9">
-        <v>59.48</v>
-      </c>
-      <c r="H16" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I16" s="9">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="J16" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="K16" s="9">
-        <v>102.41</v>
-      </c>
-      <c r="L16" s="9">
-        <v>59.97</v>
-      </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9">
-        <v>2.95</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>322.41000000000003</v>
-      </c>
-      <c r="R16" s="9">
-        <v>26.97</v>
+      <c r="B16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S16" s="9">
         <v>76.3</v>
@@ -6499,50 +8359,56 @@
       <c r="A17" s="8">
         <v>0.5</v>
       </c>
-      <c r="B17" s="9">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="C17" s="9">
-        <v>3.55</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1.19</v>
-      </c>
-      <c r="E17" s="9">
-        <v>2.36</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G17" s="9">
-        <v>61.32</v>
-      </c>
-      <c r="H17" s="9">
-        <v>2.19</v>
-      </c>
-      <c r="I17" s="9">
-        <v>2.04</v>
-      </c>
-      <c r="J17" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="K17" s="9">
-        <v>100.49</v>
-      </c>
-      <c r="L17" s="9">
-        <v>56.98</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>331.33</v>
-      </c>
-      <c r="R17" s="9">
-        <v>27.05</v>
+      <c r="B17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S17" s="9">
         <v>78.12</v>
@@ -6581,50 +8447,56 @@
       <c r="A18" s="8">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B18" s="9">
-        <v>3.15</v>
-      </c>
-      <c r="C18" s="9">
-        <v>3.29</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.79</v>
-      </c>
-      <c r="E18" s="9">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="G18" s="9">
-        <v>59.48</v>
-      </c>
-      <c r="H18" s="9">
-        <v>2.17</v>
-      </c>
-      <c r="I18" s="9">
-        <v>2.04</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0.13</v>
-      </c>
-      <c r="K18" s="9">
-        <v>106.25</v>
-      </c>
-      <c r="L18" s="9">
-        <v>56.98</v>
-      </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>325.92</v>
-      </c>
-      <c r="R18" s="9">
-        <v>26.53</v>
+      <c r="B18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S18" s="9">
         <v>79.37</v>
@@ -6663,50 +8535,56 @@
       <c r="A19" s="8">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B19" s="9">
-        <v>2.9</v>
-      </c>
-      <c r="C19" s="9">
-        <v>2.99</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0.71</v>
-      </c>
-      <c r="E19" s="9">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0.31</v>
-      </c>
-      <c r="G19" s="9">
-        <v>65.2</v>
-      </c>
-      <c r="H19" s="9">
-        <v>2.21</v>
-      </c>
-      <c r="I19" s="9">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="J19" s="9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K19" s="9">
-        <v>96.66</v>
-      </c>
-      <c r="L19" s="9">
-        <v>57.97</v>
-      </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>336.85</v>
-      </c>
-      <c r="R19" s="9">
-        <v>26.05</v>
+      <c r="B19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S19" s="9">
         <v>80.400000000000006</v>
@@ -6745,50 +8623,56 @@
       <c r="A20" s="8">
         <v>0.625</v>
       </c>
-      <c r="B20" s="9">
-        <v>2.9</v>
-      </c>
-      <c r="C20" s="9">
-        <v>3</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0.79</v>
-      </c>
-      <c r="E20" s="9">
-        <v>2.21</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0.32</v>
-      </c>
-      <c r="G20" s="9">
-        <v>65.02</v>
-      </c>
-      <c r="H20" s="9">
-        <v>2.19</v>
-      </c>
-      <c r="I20" s="9">
-        <v>2.08</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0.11</v>
-      </c>
-      <c r="K20" s="9">
-        <v>110.09</v>
-      </c>
-      <c r="L20" s="9">
-        <v>52.99</v>
-      </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>341.95</v>
-      </c>
-      <c r="R20" s="9">
-        <v>26.1</v>
+      <c r="B20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S20" s="9">
         <v>79.55</v>
@@ -6827,50 +8711,56 @@
       <c r="A21" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B21" s="9">
-        <v>2.73</v>
-      </c>
-      <c r="C21" s="9">
-        <v>3</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0.76</v>
-      </c>
-      <c r="E21" s="9">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0.32</v>
-      </c>
-      <c r="G21" s="9">
-        <v>64.77</v>
-      </c>
-      <c r="H21" s="9">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="I21" s="9">
-        <v>2.09</v>
-      </c>
-      <c r="J21" s="9">
-        <v>0.13</v>
-      </c>
-      <c r="K21" s="9">
-        <v>104.33</v>
-      </c>
-      <c r="L21" s="9">
-        <v>66.31</v>
-      </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9">
-        <v>3.31</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>358.01</v>
-      </c>
-      <c r="R21" s="9">
-        <v>26.46</v>
+      <c r="B21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S21" s="9">
         <v>77.73</v>
@@ -6909,50 +8799,56 @@
       <c r="A22" s="8">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B22" s="9">
-        <v>2.71</v>
-      </c>
-      <c r="C22" s="9">
-        <v>3.77</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1.53</v>
-      </c>
-      <c r="E22" s="9">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0.34</v>
-      </c>
-      <c r="G22" s="9">
-        <v>59.28</v>
-      </c>
-      <c r="H22" s="9">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="I22" s="9">
-        <v>2.14</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="K22" s="9">
-        <v>115.85</v>
-      </c>
-      <c r="L22" s="9">
-        <v>65.959999999999994</v>
-      </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>8.82</v>
-      </c>
-      <c r="R22" s="9">
-        <v>26.8</v>
+      <c r="B22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S22" s="9">
         <v>74.59</v>
@@ -6991,50 +8887,56 @@
       <c r="A23" s="8">
         <v>0.75</v>
       </c>
-      <c r="B23" s="9">
-        <v>2.79</v>
-      </c>
-      <c r="C23" s="9">
-        <v>5.78</v>
-      </c>
-      <c r="D23" s="9">
-        <v>3.52</v>
-      </c>
-      <c r="E23" s="9">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="F23" s="9">
-        <v>0.38</v>
-      </c>
-      <c r="G23" s="9">
-        <v>51.43</v>
-      </c>
-      <c r="H23" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="I23" s="9">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="J23" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="K23" s="9">
-        <v>127.37</v>
-      </c>
-      <c r="L23" s="9">
-        <v>69.95</v>
-      </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9">
-        <v>1.33</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>26.12</v>
-      </c>
-      <c r="R23" s="9">
-        <v>26.84</v>
+      <c r="B23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S23" s="9">
         <v>72.81</v>
@@ -7073,50 +8975,56 @@
       <c r="A24" s="8">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B24" s="9">
-        <v>2.79</v>
-      </c>
-      <c r="C24" s="9">
-        <v>5.57</v>
-      </c>
-      <c r="D24" s="9">
-        <v>3.44</v>
-      </c>
-      <c r="E24" s="9">
-        <v>2.13</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0.41</v>
-      </c>
-      <c r="G24" s="9">
-        <v>49.93</v>
-      </c>
-      <c r="H24" s="9">
-        <v>2.41</v>
-      </c>
-      <c r="I24" s="9">
-        <v>2.27</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="K24" s="9">
-        <v>137.93</v>
-      </c>
-      <c r="L24" s="9">
-        <v>72.94</v>
-      </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9">
-        <v>0.64</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>11.44</v>
-      </c>
-      <c r="R24" s="9">
-        <v>26.76</v>
+      <c r="B24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S24" s="9">
         <v>74.319999999999993</v>
@@ -7155,50 +9063,56 @@
       <c r="A25" s="8">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B25" s="9">
-        <v>3.12</v>
-      </c>
-      <c r="C25" s="9">
-        <v>9.92</v>
-      </c>
-      <c r="D25" s="9">
-        <v>7.68</v>
-      </c>
-      <c r="E25" s="9">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="F25" s="9">
-        <v>0.45</v>
-      </c>
-      <c r="G25" s="9">
-        <v>39.46</v>
-      </c>
-      <c r="H25" s="9">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="I25" s="9">
-        <v>2.25</v>
-      </c>
-      <c r="J25" s="9">
-        <v>0.22</v>
-      </c>
-      <c r="K25" s="9">
-        <v>152.33000000000001</v>
-      </c>
-      <c r="L25" s="9">
-        <v>88.91</v>
-      </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9">
-        <v>0.91</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>156.80000000000001</v>
-      </c>
-      <c r="R25" s="9">
-        <v>27.05</v>
+      <c r="B25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S25" s="9">
         <v>73.28</v>
@@ -7237,50 +9151,56 @@
       <c r="A26" s="8">
         <v>0.875</v>
       </c>
-      <c r="B26" s="9">
-        <v>3.14</v>
-      </c>
-      <c r="C26" s="9">
-        <v>9.09</v>
-      </c>
-      <c r="D26" s="9">
-        <v>6.68</v>
-      </c>
-      <c r="E26" s="9">
-        <v>2.41</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0.47</v>
-      </c>
-      <c r="G26" s="9">
-        <v>37.01</v>
-      </c>
-      <c r="H26" s="9">
-        <v>2.44</v>
-      </c>
-      <c r="I26" s="9">
-        <v>2.25</v>
-      </c>
-      <c r="J26" s="9">
-        <v>0.19</v>
-      </c>
-      <c r="K26" s="9">
-        <v>149.79</v>
-      </c>
-      <c r="L26" s="9">
-        <v>85.91</v>
-      </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>207.22</v>
-      </c>
-      <c r="R26" s="9">
-        <v>26.82</v>
+      <c r="B26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S26" s="9">
         <v>74.650000000000006</v>
@@ -7319,50 +9239,56 @@
       <c r="A27" s="8">
         <v>0.91666666666666663</v>
       </c>
-      <c r="B27" s="9">
-        <v>3</v>
-      </c>
-      <c r="C27" s="9">
-        <v>7.9</v>
-      </c>
-      <c r="D27" s="9">
-        <v>5.84</v>
-      </c>
-      <c r="E27" s="9">
-        <v>2.06</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0.46</v>
-      </c>
-      <c r="G27" s="9">
-        <v>34.75</v>
-      </c>
-      <c r="H27" s="9">
-        <v>2.71</v>
-      </c>
-      <c r="I27" s="9">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="J27" s="9">
-        <v>0.24</v>
-      </c>
-      <c r="K27" s="9">
-        <v>149.77000000000001</v>
-      </c>
-      <c r="L27" s="9">
-        <v>81.92</v>
-      </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9">
-        <v>0.73</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>156.19999999999999</v>
-      </c>
-      <c r="R27" s="9">
-        <v>26.92</v>
+      <c r="B27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S27" s="9">
         <v>74.83</v>
@@ -7401,50 +9327,56 @@
       <c r="A28" s="8">
         <v>0.95833333333333337</v>
       </c>
-      <c r="B28" s="9">
-        <v>2.76</v>
-      </c>
-      <c r="C28" s="9">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="D28" s="9">
-        <v>5.88</v>
-      </c>
-      <c r="E28" s="9">
-        <v>2.16</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0.44</v>
-      </c>
-      <c r="G28" s="9">
-        <v>28.06</v>
-      </c>
-      <c r="H28" s="9">
-        <v>3.13</v>
-      </c>
-      <c r="I28" s="9">
-        <v>2.85</v>
-      </c>
-      <c r="J28" s="9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K28" s="9">
-        <v>142.72999999999999</v>
-      </c>
-      <c r="L28" s="9">
-        <v>87.91</v>
-      </c>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>161.62</v>
-      </c>
-      <c r="R28" s="9">
-        <v>26.56</v>
+      <c r="B28" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="S28" s="9">
         <v>76.930000000000007</v>

--- a/report_template/daily_report.xlsx
+++ b/report_template/daily_report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>監測日報表</t>
   </si>
@@ -142,16 +142,15 @@
     <t>定保</t>
   </si>
   <si>
-    <t>無效數據</t>
+    <t>異常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>校正失敗</t>
+    <t>自動檢核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不可抗力</t>
-  </si>
-  <si>
-    <t>遺失資料</t>
+    <t>人工註記</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,18 +193,12 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -233,13 +226,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,6 +291,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -305,18 +301,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -336,6 +320,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,8 +442,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="263414368"/>
-        <c:axId val="263409272"/>
+        <c:axId val="209287232"/>
+        <c:axId val="209288016"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -498,11 +491,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="263412016"/>
-        <c:axId val="263408096"/>
+        <c:axId val="207143712"/>
+        <c:axId val="207149200"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="263414368"/>
+        <c:axId val="209287232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="263409272"/>
+        <c:crossAx val="209288016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -538,7 +531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263409272"/>
+        <c:axId val="209288016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,12 +561,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="263414368"/>
+        <c:crossAx val="209287232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="263408096"/>
+        <c:axId val="207149200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -604,13 +597,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="263412016"/>
+        <c:crossAx val="207143712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="90"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="263412016"/>
+        <c:axId val="207143712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="263408096"/>
+        <c:crossAx val="207149200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -857,8 +850,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="263411624"/>
-        <c:axId val="263408488"/>
+        <c:axId val="206753760"/>
+        <c:axId val="206756112"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -906,11 +899,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="263412408"/>
-        <c:axId val="263408880"/>
+        <c:axId val="210210432"/>
+        <c:axId val="428845280"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="263411624"/>
+        <c:axId val="206753760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -938,7 +931,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="263408488"/>
+        <c:crossAx val="206756112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -946,7 +939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263408488"/>
+        <c:axId val="206756112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -976,12 +969,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="263411624"/>
+        <c:crossAx val="206753760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="263408880"/>
+        <c:axId val="428845280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -1012,13 +1005,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="263412408"/>
+        <c:crossAx val="210210432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="90"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="263412408"/>
+        <c:axId val="210210432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1027,7 +1020,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="263408880"/>
+        <c:crossAx val="428845280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1096,6 +1089,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1264,8 +1258,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="263122520"/>
-        <c:axId val="263122912"/>
+        <c:axId val="209292328"/>
+        <c:axId val="423349976"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1313,11 +1307,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="265438152"/>
-        <c:axId val="263120560"/>
+        <c:axId val="423351936"/>
+        <c:axId val="423354288"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="263122520"/>
+        <c:axId val="209292328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,12 +1333,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="263122912"/>
+        <c:crossAx val="423349976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1352,7 +1347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263122912"/>
+        <c:axId val="423349976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,18 +1370,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="263122520"/>
+        <c:crossAx val="209292328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="263120560"/>
+        <c:axId val="423354288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -1410,19 +1406,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265438152"/>
+        <c:crossAx val="423351936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="90"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265438152"/>
+        <c:axId val="423351936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,13 +1428,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="263120560"/>
+        <c:crossAx val="423354288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1499,6 +1497,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1667,8 +1666,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="265438544"/>
-        <c:axId val="265439328"/>
+        <c:axId val="423353112"/>
+        <c:axId val="423355072"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1716,11 +1715,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="265439720"/>
-        <c:axId val="265443248"/>
+        <c:axId val="423353896"/>
+        <c:axId val="423353504"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="265438544"/>
+        <c:axId val="423353112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1742,12 +1741,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265439328"/>
+        <c:crossAx val="423355072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1755,7 +1755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="265439328"/>
+        <c:axId val="423355072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1778,18 +1778,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265438544"/>
+        <c:crossAx val="423353112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265443248"/>
+        <c:axId val="423353504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -1813,19 +1814,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265439720"/>
+        <c:crossAx val="423353896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="90"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265439720"/>
+        <c:axId val="423353896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,13 +1836,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265443248"/>
+        <c:crossAx val="423353504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1902,6 +1905,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2070,8 +2074,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="265437760"/>
-        <c:axId val="265440896"/>
+        <c:axId val="423356640"/>
+        <c:axId val="423357032"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2119,11 +2123,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="265440112"/>
-        <c:axId val="265438936"/>
+        <c:axId val="423350760"/>
+        <c:axId val="423357424"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="265437760"/>
+        <c:axId val="423356640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2145,12 +2149,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265440896"/>
+        <c:crossAx val="423357032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2158,7 +2163,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="265440896"/>
+        <c:axId val="423357032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,18 +2186,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265437760"/>
+        <c:crossAx val="423356640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265438936"/>
+        <c:axId val="423357424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -2216,19 +2222,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265440112"/>
+        <c:crossAx val="423350760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="90"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265440112"/>
+        <c:axId val="423350760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,13 +2244,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265438936"/>
+        <c:crossAx val="423357424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2317,6 +2325,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2485,8 +2494,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="263410056"/>
-        <c:axId val="263412800"/>
+        <c:axId val="423351152"/>
+        <c:axId val="423351544"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2534,11 +2543,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="265211728"/>
-        <c:axId val="263413192"/>
+        <c:axId val="208549368"/>
+        <c:axId val="423355856"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="263410056"/>
+        <c:axId val="423351152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2560,12 +2569,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="263412800"/>
+        <c:crossAx val="423351544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2573,7 +2583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263412800"/>
+        <c:axId val="423351544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2596,18 +2606,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="263410056"/>
+        <c:crossAx val="423351152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="263413192"/>
+        <c:axId val="423355856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -2631,19 +2642,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265211728"/>
+        <c:crossAx val="208549368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="90"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265211728"/>
+        <c:axId val="208549368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2652,13 +2664,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="263413192"/>
+        <c:crossAx val="423355856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2720,6 +2733,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2888,8 +2902,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="265212512"/>
-        <c:axId val="265214472"/>
+        <c:axId val="429773584"/>
+        <c:axId val="502544288"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2937,11 +2951,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="265215256"/>
-        <c:axId val="265211336"/>
+        <c:axId val="502543112"/>
+        <c:axId val="502541936"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="265212512"/>
+        <c:axId val="429773584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2963,12 +2977,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265214472"/>
+        <c:crossAx val="502544288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2976,7 +2991,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="265214472"/>
+        <c:axId val="502544288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2999,18 +3014,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265212512"/>
+        <c:crossAx val="429773584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265211336"/>
+        <c:axId val="502541936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -3034,19 +3050,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265215256"/>
+        <c:crossAx val="502543112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="90"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265215256"/>
+        <c:axId val="502543112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3055,13 +3072,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265211336"/>
+        <c:crossAx val="502541936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3120,6 +3138,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3288,8 +3307,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="265217216"/>
-        <c:axId val="265213688"/>
+        <c:axId val="502539192"/>
+        <c:axId val="502544680"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3337,11 +3356,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="265210552"/>
-        <c:axId val="265214864"/>
+        <c:axId val="502545072"/>
+        <c:axId val="502540760"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="265217216"/>
+        <c:axId val="502539192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3363,12 +3382,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265213688"/>
+        <c:crossAx val="502544680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3376,7 +3396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="265213688"/>
+        <c:axId val="502544680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3399,18 +3419,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265217216"/>
+        <c:crossAx val="502539192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265214864"/>
+        <c:axId val="502540760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -3434,19 +3455,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265210552"/>
+        <c:crossAx val="502545072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="90"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265210552"/>
+        <c:axId val="502545072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3455,13 +3477,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265214864"/>
+        <c:crossAx val="502540760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4010,8 +4033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4022,26 +4045,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -4053,26 +4076,26 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -4084,20 +4107,20 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="18" t="s">
         <v>32</v>
       </c>
       <c r="K3" s="10" t="s">
@@ -4106,18 +4129,16 @@
       <c r="L3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="14" t="s">
+      <c r="N3" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="O3" s="19"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -4211,23 +4232,23 @@
       <c r="A5" s="5">
         <v>0</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1">
@@ -4256,23 +4277,23 @@
       <c r="A6" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1">
@@ -4301,23 +4322,23 @@
       <c r="A7" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1">
@@ -4346,23 +4367,23 @@
       <c r="A8" s="5">
         <v>0.125</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1">
@@ -4391,23 +4412,23 @@
       <c r="A9" s="5">
         <v>0.16666666666666666</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1">
@@ -4436,23 +4457,23 @@
       <c r="A10" s="5">
         <v>0.20833333333333334</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1">
@@ -4481,23 +4502,23 @@
       <c r="A11" s="5">
         <v>0.25</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1">
@@ -4526,23 +4547,23 @@
       <c r="A12" s="5">
         <v>0.29166666666666669</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1">
@@ -4571,23 +4592,23 @@
       <c r="A13" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1">
@@ -4616,23 +4637,23 @@
       <c r="A14" s="5">
         <v>0.375</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1">
@@ -4661,23 +4682,23 @@
       <c r="A15" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1">
@@ -4706,23 +4727,23 @@
       <c r="A16" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1">
@@ -4751,23 +4772,23 @@
       <c r="A17" s="5">
         <v>0.5</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1">
@@ -4796,23 +4817,23 @@
       <c r="A18" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1">
@@ -4841,23 +4862,23 @@
       <c r="A19" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1">
@@ -4886,23 +4907,23 @@
       <c r="A20" s="5">
         <v>0.625</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1">
@@ -4931,23 +4952,23 @@
       <c r="A21" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1">
@@ -4976,23 +4997,23 @@
       <c r="A22" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1">
@@ -5021,23 +5042,23 @@
       <c r="A23" s="5">
         <v>0.75</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1">
@@ -5066,23 +5087,23 @@
       <c r="A24" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1">
@@ -5111,23 +5132,23 @@
       <c r="A25" s="5">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1">
@@ -5156,23 +5177,23 @@
       <c r="A26" s="5">
         <v>0.875</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1">
@@ -5201,23 +5222,23 @@
       <c r="A27" s="5">
         <v>0.91666666666666663</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1">
@@ -5246,23 +5267,23 @@
       <c r="A28" s="5">
         <v>0.95833333333333337</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1">
@@ -5291,23 +5312,23 @@
       <c r="A29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
@@ -5322,23 +5343,23 @@
       <c r="A30" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -5353,23 +5374,23 @@
       <c r="A31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -5384,23 +5405,23 @@
       <c r="A32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -5619,26 +5640,26 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
@@ -5650,24 +5671,24 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -5679,24 +5700,24 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
@@ -5708,24 +5729,24 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
@@ -5737,24 +5758,24 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>

--- a/report_template/daily_report.xlsx
+++ b/report_template/daily_report.xlsx
@@ -16,12 +16,12 @@
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>監測日報表</t>
   </si>
@@ -153,11 +153,16 @@
     <t>人工註記</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>周界PM25
+UG/M3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
@@ -291,20 +296,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -321,13 +317,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -348,7 +353,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -395,7 +400,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$M$4</c:f>
+              <c:f>監測日報表!$N$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -423,7 +428,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$M$5:$M$28</c:f>
+              <c:f>監測日報表!$N$5:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -431,6 +436,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E2A-4C33-887A-EAF572026577}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -453,7 +463,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$N$4</c:f>
+              <c:f>監測日報表!$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -474,7 +484,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$N$5:$N$28</c:f>
+              <c:f>監測日報表!$O$5:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -482,6 +492,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9E2A-4C33-887A-EAF572026577}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -635,7 +650,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -731,13 +746,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05D9-4170-85B4-BE8E8F7D8902}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$U$4</c:f>
+              <c:f>監測日報表!$V$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -759,7 +779,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$U$5:$U$28</c:f>
+              <c:f>監測日報表!$V$5:$V$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -839,6 +859,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-05D9-4170-85B4-BE8E8F7D8902}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -861,7 +886,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$N$4</c:f>
+              <c:f>監測日報表!$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -882,7 +907,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$N$5:$N$28</c:f>
+              <c:f>監測日報表!$O$5:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -890,6 +915,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-05D9-4170-85B4-BE8E8F7D8902}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1043,7 +1073,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1139,13 +1169,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7987-4D3A-965C-9432BDB5A566}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$V$4</c:f>
+              <c:f>監測日報表!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1167,7 +1202,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$V$5:$V$28</c:f>
+              <c:f>監測日報表!$W$5:$W$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1247,6 +1282,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7987-4D3A-965C-9432BDB5A566}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1269,7 +1309,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$N$4</c:f>
+              <c:f>監測日報表!$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1290,7 +1330,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$N$5:$N$28</c:f>
+              <c:f>監測日報表!$O$5:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -1298,6 +1338,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7987-4D3A-965C-9432BDB5A566}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1451,7 +1496,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1547,13 +1592,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CDF5-4457-8ED6-1EEE3833F05A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$W$4</c:f>
+              <c:f>監測日報表!$X$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1575,7 +1625,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$W$5:$W$28</c:f>
+              <c:f>監測日報表!$X$5:$X$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1655,6 +1705,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CDF5-4457-8ED6-1EEE3833F05A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1677,7 +1732,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$N$4</c:f>
+              <c:f>監測日報表!$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1698,7 +1753,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$N$5:$N$28</c:f>
+              <c:f>監測日報表!$O$5:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -1706,6 +1761,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CDF5-4457-8ED6-1EEE3833F05A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1859,7 +1919,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1955,13 +2015,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37D3-4C03-9128-0AB6CDAE652C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$X$4</c:f>
+              <c:f>監測日報表!$Y$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1983,7 +2048,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$X$5:$X$28</c:f>
+              <c:f>監測日報表!$Y$5:$Y$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2063,6 +2128,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-37D3-4C03-9128-0AB6CDAE652C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2085,7 +2155,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$N$4</c:f>
+              <c:f>監測日報表!$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2106,7 +2176,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$N$5:$N$28</c:f>
+              <c:f>監測日報表!$O$5:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -2114,6 +2184,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-37D3-4C03-9128-0AB6CDAE652C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2267,7 +2342,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -2375,13 +2450,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B909-4D87-9D36-5674474EEA27}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$Y$4</c:f>
+              <c:f>監測日報表!$Z$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2403,7 +2483,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$Y$5:$Y$28</c:f>
+              <c:f>監測日報表!$Z$5:$Z$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2483,6 +2563,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B909-4D87-9D36-5674474EEA27}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2505,7 +2590,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$N$4</c:f>
+              <c:f>監測日報表!$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2526,7 +2611,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$N$5:$N$28</c:f>
+              <c:f>監測日報表!$O$5:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -2534,6 +2619,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B909-4D87-9D36-5674474EEA27}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2687,7 +2777,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -2783,13 +2873,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D10-4C8A-BA22-74EB960A1BC5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$Z$4</c:f>
+              <c:f>監測日報表!$AA$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2811,7 +2906,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$Z$5:$Z$28</c:f>
+              <c:f>監測日報表!$AA$5:$AA$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2891,6 +2986,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D10-4C8A-BA22-74EB960A1BC5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2913,7 +3013,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$N$4</c:f>
+              <c:f>監測日報表!$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2934,7 +3034,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$N$5:$N$28</c:f>
+              <c:f>監測日報表!$O$5:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -2942,6 +3042,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2D10-4C8A-BA22-74EB960A1BC5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3095,7 +3200,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -3188,13 +3293,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9F5-4A0D-B861-25B0121EF2F2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$AA$4</c:f>
+              <c:f>監測日報表!$AB$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3216,7 +3326,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$AA$5:$AA$28</c:f>
+              <c:f>監測日報表!$AB$5:$AB$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3296,6 +3406,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F9F5-4A0D-B861-25B0121EF2F2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3318,7 +3433,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$N$4</c:f>
+              <c:f>監測日報表!$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3339,7 +3454,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$N$5:$N$28</c:f>
+              <c:f>監測日報表!$O$5:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -3347,6 +3462,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F9F5-4A0D-B861-25B0121EF2F2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3539,7 +3659,7 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -3599,7 +3719,7 @@
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3659,7 +3779,7 @@
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3719,7 +3839,7 @@
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
       <xdr:row>143</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -4031,41 +4151,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA40"/>
+  <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="11" width="11.125" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="10.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="27" width="11.125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.25" customWidth="1"/>
+    <col min="14" max="28" width="11.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="1"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -4074,29 +4195,30 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="1"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -4105,41 +4227,42 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="2" t="s">
+    <row r="3" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="1"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -4148,8 +4271,9 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4187,28 +4311,28 @@
         <v>13</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
         <v>23</v>
       </c>
@@ -4227,1109 +4351,1136 @@
       <c r="AA4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="AB4" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>0</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="1"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="1">
+      <c r="U5" s="1"/>
+      <c r="V5" s="1">
         <v>20</v>
       </c>
-      <c r="V5" s="1">
+      <c r="W5" s="1">
         <v>10</v>
       </c>
-      <c r="W5" s="1">
+      <c r="X5" s="1">
         <v>50</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Y5" s="1">
         <v>120</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Z5" s="1">
         <v>125</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AA5" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AB5" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="1"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1">
+      <c r="U6" s="1"/>
+      <c r="V6" s="1">
         <v>20</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <v>10</v>
       </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
         <v>50</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>120</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Z6" s="1">
         <v>125</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AA6" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AB6" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="1"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="1">
+      <c r="U7" s="1"/>
+      <c r="V7" s="1">
         <v>20</v>
       </c>
-      <c r="V7" s="1">
+      <c r="W7" s="1">
         <v>10</v>
       </c>
-      <c r="W7" s="1">
+      <c r="X7" s="1">
         <v>50</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Y7" s="1">
         <v>120</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Z7" s="1">
         <v>125</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AA7" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AB7" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>0.125</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="1"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="1">
+      <c r="U8" s="1"/>
+      <c r="V8" s="1">
         <v>20</v>
       </c>
-      <c r="V8" s="1">
+      <c r="W8" s="1">
         <v>10</v>
       </c>
-      <c r="W8" s="1">
+      <c r="X8" s="1">
         <v>50</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Y8" s="1">
         <v>120</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Z8" s="1">
         <v>125</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AA8" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AB8" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>0.16666666666666666</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="1"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="1">
+      <c r="U9" s="1"/>
+      <c r="V9" s="1">
         <v>20</v>
       </c>
-      <c r="V9" s="1">
+      <c r="W9" s="1">
         <v>10</v>
       </c>
-      <c r="W9" s="1">
+      <c r="X9" s="1">
         <v>50</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y9" s="1">
         <v>120</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Z9" s="1">
         <v>125</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AA9" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AB9" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>0.20833333333333334</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="1"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="1">
+      <c r="U10" s="1"/>
+      <c r="V10" s="1">
         <v>20</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <v>10</v>
       </c>
-      <c r="W10" s="1">
+      <c r="X10" s="1">
         <v>50</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Y10" s="1">
         <v>120</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Z10" s="1">
         <v>125</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AA10" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AB10" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>0.25</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="1"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="1">
+      <c r="U11" s="1"/>
+      <c r="V11" s="1">
         <v>20</v>
       </c>
-      <c r="V11" s="1">
+      <c r="W11" s="1">
         <v>10</v>
       </c>
-      <c r="W11" s="1">
+      <c r="X11" s="1">
         <v>50</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Y11" s="1">
         <v>120</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Z11" s="1">
         <v>125</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AA11" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AB11" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>0.29166666666666669</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="1"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="1">
+      <c r="U12" s="1"/>
+      <c r="V12" s="1">
         <v>20</v>
       </c>
-      <c r="V12" s="1">
+      <c r="W12" s="1">
         <v>10</v>
       </c>
-      <c r="W12" s="1">
+      <c r="X12" s="1">
         <v>50</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Y12" s="1">
         <v>120</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Z12" s="1">
         <v>125</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AA12" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AB12" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="1"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1">
+      <c r="U13" s="1"/>
+      <c r="V13" s="1">
         <v>20</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W13" s="1">
         <v>10</v>
       </c>
-      <c r="W13" s="1">
+      <c r="X13" s="1">
         <v>50</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Y13" s="1">
         <v>120</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Z13" s="1">
         <v>125</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AA13" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AB13" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>0.375</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="1"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1">
+      <c r="U14" s="1"/>
+      <c r="V14" s="1">
         <v>20</v>
       </c>
-      <c r="V14" s="1">
+      <c r="W14" s="1">
         <v>10</v>
       </c>
-      <c r="W14" s="1">
+      <c r="X14" s="1">
         <v>50</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Y14" s="1">
         <v>120</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Z14" s="1">
         <v>125</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AA14" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AB14" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="1"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1">
+      <c r="U15" s="1"/>
+      <c r="V15" s="1">
         <v>20</v>
       </c>
-      <c r="V15" s="1">
+      <c r="W15" s="1">
         <v>10</v>
       </c>
-      <c r="W15" s="1">
+      <c r="X15" s="1">
         <v>50</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Y15" s="1">
         <v>120</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Z15" s="1">
         <v>125</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AA15" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AB15" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="1"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="1">
+      <c r="U16" s="1"/>
+      <c r="V16" s="1">
         <v>20</v>
       </c>
-      <c r="V16" s="1">
+      <c r="W16" s="1">
         <v>10</v>
       </c>
-      <c r="W16" s="1">
+      <c r="X16" s="1">
         <v>50</v>
       </c>
-      <c r="X16" s="1">
+      <c r="Y16" s="1">
         <v>120</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Z16" s="1">
         <v>125</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AA16" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AB16" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>0.5</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="1"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="1">
+      <c r="U17" s="1"/>
+      <c r="V17" s="1">
         <v>20</v>
       </c>
-      <c r="V17" s="1">
+      <c r="W17" s="1">
         <v>10</v>
       </c>
-      <c r="W17" s="1">
+      <c r="X17" s="1">
         <v>50</v>
       </c>
-      <c r="X17" s="1">
+      <c r="Y17" s="1">
         <v>120</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Z17" s="1">
         <v>125</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="AA17" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AB17" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="1"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="1">
+      <c r="U18" s="1"/>
+      <c r="V18" s="1">
         <v>20</v>
       </c>
-      <c r="V18" s="1">
+      <c r="W18" s="1">
         <v>10</v>
       </c>
-      <c r="W18" s="1">
+      <c r="X18" s="1">
         <v>50</v>
       </c>
-      <c r="X18" s="1">
+      <c r="Y18" s="1">
         <v>120</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Z18" s="1">
         <v>125</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="AA18" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AB18" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="1"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="1">
+      <c r="U19" s="1"/>
+      <c r="V19" s="1">
         <v>20</v>
       </c>
-      <c r="V19" s="1">
+      <c r="W19" s="1">
         <v>10</v>
       </c>
-      <c r="W19" s="1">
+      <c r="X19" s="1">
         <v>50</v>
       </c>
-      <c r="X19" s="1">
+      <c r="Y19" s="1">
         <v>120</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Z19" s="1">
         <v>125</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AA19" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AB19" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>0.625</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="1"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="1">
+      <c r="U20" s="1"/>
+      <c r="V20" s="1">
         <v>20</v>
       </c>
-      <c r="V20" s="1">
+      <c r="W20" s="1">
         <v>10</v>
       </c>
-      <c r="W20" s="1">
+      <c r="X20" s="1">
         <v>50</v>
       </c>
-      <c r="X20" s="1">
+      <c r="Y20" s="1">
         <v>120</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Z20" s="1">
         <v>125</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="AA20" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AB20" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="1"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="1">
+      <c r="U21" s="1"/>
+      <c r="V21" s="1">
         <v>20</v>
       </c>
-      <c r="V21" s="1">
+      <c r="W21" s="1">
         <v>10</v>
       </c>
-      <c r="W21" s="1">
+      <c r="X21" s="1">
         <v>50</v>
       </c>
-      <c r="X21" s="1">
+      <c r="Y21" s="1">
         <v>120</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Z21" s="1">
         <v>125</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="AA21" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AB21" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="1"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
       <c r="T22" s="1"/>
-      <c r="U22" s="1">
+      <c r="U22" s="1"/>
+      <c r="V22" s="1">
         <v>20</v>
       </c>
-      <c r="V22" s="1">
+      <c r="W22" s="1">
         <v>10</v>
       </c>
-      <c r="W22" s="1">
+      <c r="X22" s="1">
         <v>50</v>
       </c>
-      <c r="X22" s="1">
+      <c r="Y22" s="1">
         <v>120</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Z22" s="1">
         <v>125</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AA22" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AB22" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>0.75</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="1"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
       <c r="T23" s="1"/>
-      <c r="U23" s="1">
+      <c r="U23" s="1"/>
+      <c r="V23" s="1">
         <v>20</v>
       </c>
-      <c r="V23" s="1">
+      <c r="W23" s="1">
         <v>10</v>
       </c>
-      <c r="W23" s="1">
+      <c r="X23" s="1">
         <v>50</v>
       </c>
-      <c r="X23" s="1">
+      <c r="Y23" s="1">
         <v>120</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Z23" s="1">
         <v>125</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="AA23" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AB23" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="1"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="1">
+      <c r="U24" s="1"/>
+      <c r="V24" s="1">
         <v>20</v>
       </c>
-      <c r="V24" s="1">
+      <c r="W24" s="1">
         <v>10</v>
       </c>
-      <c r="W24" s="1">
+      <c r="X24" s="1">
         <v>50</v>
       </c>
-      <c r="X24" s="1">
+      <c r="Y24" s="1">
         <v>120</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Z24" s="1">
         <v>125</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="AA24" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AB24" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="1"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
       <c r="T25" s="1"/>
-      <c r="U25" s="1">
+      <c r="U25" s="1"/>
+      <c r="V25" s="1">
         <v>20</v>
       </c>
-      <c r="V25" s="1">
+      <c r="W25" s="1">
         <v>10</v>
       </c>
-      <c r="W25" s="1">
+      <c r="X25" s="1">
         <v>50</v>
       </c>
-      <c r="X25" s="1">
+      <c r="Y25" s="1">
         <v>120</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Z25" s="1">
         <v>125</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AA25" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AB25" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>0.875</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="1"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
       <c r="T26" s="1"/>
-      <c r="U26" s="1">
+      <c r="U26" s="1"/>
+      <c r="V26" s="1">
         <v>20</v>
       </c>
-      <c r="V26" s="1">
+      <c r="W26" s="1">
         <v>10</v>
       </c>
-      <c r="W26" s="1">
+      <c r="X26" s="1">
         <v>50</v>
       </c>
-      <c r="X26" s="1">
+      <c r="Y26" s="1">
         <v>120</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Z26" s="1">
         <v>125</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="AA26" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AB26" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>0.91666666666666663</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="1"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
       <c r="T27" s="1"/>
-      <c r="U27" s="1">
+      <c r="U27" s="1"/>
+      <c r="V27" s="1">
         <v>20</v>
       </c>
-      <c r="V27" s="1">
+      <c r="W27" s="1">
         <v>10</v>
       </c>
-      <c r="W27" s="1">
+      <c r="X27" s="1">
         <v>50</v>
       </c>
-      <c r="X27" s="1">
+      <c r="Y27" s="1">
         <v>120</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="Z27" s="1">
         <v>125</v>
       </c>
-      <c r="Z27" s="1">
+      <c r="AA27" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AB27" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>0.95833333333333337</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="1"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
       <c r="T28" s="1"/>
-      <c r="U28" s="1">
+      <c r="U28" s="1"/>
+      <c r="V28" s="1">
         <v>20</v>
       </c>
-      <c r="V28" s="1">
+      <c r="W28" s="1">
         <v>10</v>
       </c>
-      <c r="W28" s="1">
+      <c r="X28" s="1">
         <v>50</v>
       </c>
-      <c r="X28" s="1">
+      <c r="Y28" s="1">
         <v>120</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="Z28" s="1">
         <v>125</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="AA28" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AB28" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="1"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -5338,29 +5489,30 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="1"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -5369,29 +5521,30 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="1"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -5400,29 +5553,30 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="1"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -5431,8 +5585,9 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>25</v>
       </c>
@@ -5469,9 +5624,7 @@
       <c r="L33" s="7">
         <v>125</v>
       </c>
-      <c r="M33" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="M33" s="7"/>
       <c r="N33" s="7" t="s">
         <v>26</v>
       </c>
@@ -5487,7 +5640,9 @@
       <c r="R33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="S33" s="1"/>
+      <c r="S33" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
@@ -5496,8 +5651,9 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
@@ -5540,9 +5696,7 @@
         <f>COUNTIF(L5:L28,"&gt;"&amp;L33)</f>
         <v>0</v>
       </c>
-      <c r="M34" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="M34" s="7"/>
       <c r="N34" s="7" t="s">
         <v>26</v>
       </c>
@@ -5558,7 +5712,9 @@
       <c r="R34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="S34" s="1"/>
+      <c r="S34" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
@@ -5567,8 +5723,9 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
@@ -5611,9 +5768,7 @@
         <f>L34/24*100</f>
         <v>0</v>
       </c>
-      <c r="M35" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="M35" s="7"/>
       <c r="N35" s="7" t="s">
         <v>26</v>
       </c>
@@ -5629,7 +5784,9 @@
       <c r="R35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="S35" s="1"/>
+      <c r="S35" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
@@ -5638,29 +5795,30 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+    <row r="36" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="1"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
@@ -5669,27 +5827,28 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="1"/>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -5698,27 +5857,28 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="1"/>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
@@ -5727,27 +5887,28 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="1"/>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
@@ -5756,27 +5917,28 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="1"/>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -5785,16 +5947,17 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:R40"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B36:S40"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="R2:S2"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="R3:S3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/report_template/daily_report.xlsx
+++ b/report_template/daily_report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
   <si>
     <t>監測日報表</t>
   </si>
@@ -158,6 +158,16 @@
 UG/M3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>總硫
+ppb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氨
+ppb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -242,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -265,13 +275,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,21 +332,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -334,6 +349,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,7 +422,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -400,7 +435,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$N$4</c:f>
+              <c:f>監測日報表!$P$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -428,7 +463,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$N$5:$N$28</c:f>
+              <c:f>監測日報表!$P$5:$P$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -463,7 +498,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$O$4</c:f>
+              <c:f>監測日報表!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -484,7 +519,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$O$5:$O$28</c:f>
+              <c:f>監測日報表!$Q$5:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -532,7 +567,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -569,7 +603,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -605,7 +638,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -634,7 +666,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -696,7 +727,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -757,7 +787,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$V$4</c:f>
+              <c:f>監測日報表!$X$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -779,7 +809,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$V$5:$V$28</c:f>
+              <c:f>監測日報表!$X$5:$X$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -886,7 +916,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$O$4</c:f>
+              <c:f>監測日報表!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -907,7 +937,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$O$5:$O$28</c:f>
+              <c:f>監測日報表!$Q$5:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -955,7 +985,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -992,7 +1021,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -1028,7 +1056,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -1057,7 +1084,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1119,7 +1145,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1180,7 +1205,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$W$4</c:f>
+              <c:f>監測日報表!$Y$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1202,7 +1227,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$W$5:$W$28</c:f>
+              <c:f>監測日報表!$Y$5:$Y$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1309,7 +1334,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$O$4</c:f>
+              <c:f>監測日報表!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1330,7 +1355,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$O$5:$O$28</c:f>
+              <c:f>監測日報表!$Q$5:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -1378,7 +1403,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1415,7 +1439,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -1451,7 +1474,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -1480,7 +1502,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1542,7 +1563,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1603,7 +1623,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$X$4</c:f>
+              <c:f>監測日報表!$Z$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1625,7 +1645,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$X$5:$X$28</c:f>
+              <c:f>監測日報表!$Z$5:$Z$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1732,7 +1752,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$O$4</c:f>
+              <c:f>監測日報表!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1753,7 +1773,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$O$5:$O$28</c:f>
+              <c:f>監測日報表!$Q$5:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -1801,7 +1821,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1838,7 +1857,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -1874,7 +1892,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -1903,7 +1920,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1965,7 +1981,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2026,7 +2041,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$Y$4</c:f>
+              <c:f>監測日報表!$AA$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2048,7 +2063,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$Y$5:$Y$28</c:f>
+              <c:f>監測日報表!$AA$5:$AA$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2155,7 +2170,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$O$4</c:f>
+              <c:f>監測日報表!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2176,7 +2191,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$O$5:$O$28</c:f>
+              <c:f>監測日報表!$Q$5:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -2224,7 +2239,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -2261,7 +2275,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -2297,7 +2310,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -2326,7 +2338,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2400,7 +2411,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2414,7 +2424,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$L$4</c:f>
+              <c:f>監測日報表!$N$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2442,7 +2452,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$L$5:$L$28</c:f>
+              <c:f>監測日報表!$N$5:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -2461,7 +2471,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$Z$4</c:f>
+              <c:f>監測日報表!$AB$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2483,7 +2493,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$Z$5:$Z$28</c:f>
+              <c:f>監測日報表!$AB$5:$AB$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2590,7 +2600,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$O$4</c:f>
+              <c:f>監測日報表!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2611,7 +2621,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$O$5:$O$28</c:f>
+              <c:f>監測日報表!$Q$5:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -2659,7 +2669,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -2696,7 +2705,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -2732,7 +2740,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -2761,7 +2768,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2823,7 +2829,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2884,7 +2889,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$AA$4</c:f>
+              <c:f>監測日報表!$AC$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2906,7 +2911,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$AA$5:$AA$28</c:f>
+              <c:f>監測日報表!$AC$5:$AC$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3013,7 +3018,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$O$4</c:f>
+              <c:f>監測日報表!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3034,7 +3039,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$O$5:$O$28</c:f>
+              <c:f>監測日報表!$Q$5:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -3082,7 +3087,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -3119,7 +3123,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -3155,7 +3158,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -3184,7 +3186,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3243,7 +3244,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3257,7 +3257,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$K$4</c:f>
+              <c:f>監測日報表!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3285,7 +3285,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$K$5:$K$28</c:f>
+              <c:f>監測日報表!$M$5:$M$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -3304,7 +3304,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$AB$4</c:f>
+              <c:f>監測日報表!$AD$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3326,7 +3326,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$AB$5:$AB$28</c:f>
+              <c:f>監測日報表!$AD$5:$AD$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3433,7 +3433,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$O$4</c:f>
+              <c:f>監測日報表!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3454,7 +3454,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$O$5:$O$28</c:f>
+              <c:f>監測日報表!$Q$5:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -3502,7 +3502,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -3539,7 +3538,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -3575,7 +3573,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -3604,7 +3601,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3659,7 +3655,7 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -3719,7 +3715,7 @@
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3779,7 +3775,7 @@
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3839,7 +3835,7 @@
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
       <xdr:row>143</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -4151,44 +4147,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB40"/>
+  <dimension ref="A1:AD40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="11.125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.25" customWidth="1"/>
-    <col min="14" max="28" width="11.125" customWidth="1" collapsed="1"/>
+    <col min="1" max="13" width="11.125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.25" customWidth="1"/>
+    <col min="16" max="30" width="11.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -4196,31 +4192,33 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -4228,43 +4226,38 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="3" t="s">
+    <row r="3" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="D3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -4272,8 +4265,10 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4305,40 +4300,40 @@
         <v>11</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
         <v>23</v>
       </c>
@@ -4354,8 +4349,14 @@
       <c r="AB4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="AC4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>0</v>
       </c>
@@ -4377,31 +4378,33 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1">
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1">
         <v>20</v>
       </c>
-      <c r="W5" s="1">
+      <c r="Y5" s="1">
         <v>10</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Z5" s="1">
         <v>50</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AA5" s="1">
         <v>120</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AB5" s="1">
         <v>125</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AC5" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AD5" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4423,31 +4426,33 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1">
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1">
         <v>20</v>
       </c>
-      <c r="W6" s="1">
+      <c r="Y6" s="1">
         <v>10</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Z6" s="1">
         <v>50</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AA6" s="1">
         <v>120</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AB6" s="1">
         <v>125</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AC6" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AD6" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -4469,31 +4474,33 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1">
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1">
         <v>20</v>
       </c>
-      <c r="W7" s="1">
+      <c r="Y7" s="1">
         <v>10</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Z7" s="1">
         <v>50</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="AA7" s="1">
         <v>120</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AB7" s="1">
         <v>125</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AC7" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AD7" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>0.125</v>
       </c>
@@ -4515,31 +4522,33 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1">
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1">
         <v>20</v>
       </c>
-      <c r="W8" s="1">
+      <c r="Y8" s="1">
         <v>10</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Z8" s="1">
         <v>50</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="AA8" s="1">
         <v>120</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AB8" s="1">
         <v>125</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AC8" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AD8" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>0.16666666666666666</v>
       </c>
@@ -4561,31 +4570,33 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1">
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1">
         <v>20</v>
       </c>
-      <c r="W9" s="1">
+      <c r="Y9" s="1">
         <v>10</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Z9" s="1">
         <v>50</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="AA9" s="1">
         <v>120</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AB9" s="1">
         <v>125</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AC9" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AD9" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>0.20833333333333334</v>
       </c>
@@ -4607,31 +4618,33 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1">
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1">
         <v>20</v>
       </c>
-      <c r="W10" s="1">
+      <c r="Y10" s="1">
         <v>10</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Z10" s="1">
         <v>50</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="AA10" s="1">
         <v>120</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AB10" s="1">
         <v>125</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AC10" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AD10" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>0.25</v>
       </c>
@@ -4653,31 +4666,33 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1">
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1">
         <v>20</v>
       </c>
-      <c r="W11" s="1">
+      <c r="Y11" s="1">
         <v>10</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Z11" s="1">
         <v>50</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="AA11" s="1">
         <v>120</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AB11" s="1">
         <v>125</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AC11" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AD11" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>0.29166666666666669</v>
       </c>
@@ -4699,31 +4714,33 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1">
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1">
         <v>20</v>
       </c>
-      <c r="W12" s="1">
+      <c r="Y12" s="1">
         <v>10</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Z12" s="1">
         <v>50</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="AA12" s="1">
         <v>120</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AB12" s="1">
         <v>125</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AC12" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AD12" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>0.33333333333333331</v>
       </c>
@@ -4745,31 +4762,33 @@
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1">
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1">
         <v>20</v>
       </c>
-      <c r="W13" s="1">
+      <c r="Y13" s="1">
         <v>10</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Z13" s="1">
         <v>50</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="AA13" s="1">
         <v>120</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AB13" s="1">
         <v>125</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AC13" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AD13" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>0.375</v>
       </c>
@@ -4791,31 +4810,33 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1">
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1">
         <v>20</v>
       </c>
-      <c r="W14" s="1">
+      <c r="Y14" s="1">
         <v>10</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Z14" s="1">
         <v>50</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="AA14" s="1">
         <v>120</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AB14" s="1">
         <v>125</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AC14" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AD14" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>0.41666666666666669</v>
       </c>
@@ -4837,31 +4858,33 @@
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1">
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1">
         <v>20</v>
       </c>
-      <c r="W15" s="1">
+      <c r="Y15" s="1">
         <v>10</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Z15" s="1">
         <v>50</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="AA15" s="1">
         <v>120</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AB15" s="1">
         <v>125</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AC15" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AD15" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>0.45833333333333331</v>
       </c>
@@ -4883,31 +4906,33 @@
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1">
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1">
         <v>20</v>
       </c>
-      <c r="W16" s="1">
+      <c r="Y16" s="1">
         <v>10</v>
       </c>
-      <c r="X16" s="1">
+      <c r="Z16" s="1">
         <v>50</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="AA16" s="1">
         <v>120</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AB16" s="1">
         <v>125</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AC16" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AD16" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>0.5</v>
       </c>
@@ -4929,31 +4954,33 @@
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1">
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1">
         <v>20</v>
       </c>
-      <c r="W17" s="1">
+      <c r="Y17" s="1">
         <v>10</v>
       </c>
-      <c r="X17" s="1">
+      <c r="Z17" s="1">
         <v>50</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="AA17" s="1">
         <v>120</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="AB17" s="1">
         <v>125</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AC17" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AD17" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>0.54166666666666663</v>
       </c>
@@ -4975,31 +5002,33 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1">
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1">
         <v>20</v>
       </c>
-      <c r="W18" s="1">
+      <c r="Y18" s="1">
         <v>10</v>
       </c>
-      <c r="X18" s="1">
+      <c r="Z18" s="1">
         <v>50</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="AA18" s="1">
         <v>120</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="AB18" s="1">
         <v>125</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AC18" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AD18" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -5021,31 +5050,33 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1">
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1">
         <v>20</v>
       </c>
-      <c r="W19" s="1">
+      <c r="Y19" s="1">
         <v>10</v>
       </c>
-      <c r="X19" s="1">
+      <c r="Z19" s="1">
         <v>50</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="AA19" s="1">
         <v>120</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AB19" s="1">
         <v>125</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AC19" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AD19" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>0.625</v>
       </c>
@@ -5067,31 +5098,33 @@
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1">
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1">
         <v>20</v>
       </c>
-      <c r="W20" s="1">
+      <c r="Y20" s="1">
         <v>10</v>
       </c>
-      <c r="X20" s="1">
+      <c r="Z20" s="1">
         <v>50</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="AA20" s="1">
         <v>120</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="AB20" s="1">
         <v>125</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AC20" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AD20" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>0.66666666666666663</v>
       </c>
@@ -5113,31 +5146,33 @@
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1">
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1">
         <v>20</v>
       </c>
-      <c r="W21" s="1">
+      <c r="Y21" s="1">
         <v>10</v>
       </c>
-      <c r="X21" s="1">
+      <c r="Z21" s="1">
         <v>50</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="AA21" s="1">
         <v>120</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="AB21" s="1">
         <v>125</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AC21" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AD21" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>0.70833333333333337</v>
       </c>
@@ -5159,31 +5194,33 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1">
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1">
         <v>20</v>
       </c>
-      <c r="W22" s="1">
+      <c r="Y22" s="1">
         <v>10</v>
       </c>
-      <c r="X22" s="1">
+      <c r="Z22" s="1">
         <v>50</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="AA22" s="1">
         <v>120</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AB22" s="1">
         <v>125</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AC22" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AD22" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>0.75</v>
       </c>
@@ -5205,31 +5242,33 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1">
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1">
         <v>20</v>
       </c>
-      <c r="W23" s="1">
+      <c r="Y23" s="1">
         <v>10</v>
       </c>
-      <c r="X23" s="1">
+      <c r="Z23" s="1">
         <v>50</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="AA23" s="1">
         <v>120</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="AB23" s="1">
         <v>125</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AC23" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AD23" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>0.79166666666666663</v>
       </c>
@@ -5251,31 +5290,33 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1">
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1">
         <v>20</v>
       </c>
-      <c r="W24" s="1">
+      <c r="Y24" s="1">
         <v>10</v>
       </c>
-      <c r="X24" s="1">
+      <c r="Z24" s="1">
         <v>50</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="AA24" s="1">
         <v>120</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="AB24" s="1">
         <v>125</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AC24" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AD24" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>0.83333333333333337</v>
       </c>
@@ -5297,31 +5338,33 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1">
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1">
         <v>20</v>
       </c>
-      <c r="W25" s="1">
+      <c r="Y25" s="1">
         <v>10</v>
       </c>
-      <c r="X25" s="1">
+      <c r="Z25" s="1">
         <v>50</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="AA25" s="1">
         <v>120</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AB25" s="1">
         <v>125</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AC25" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AD25" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>0.875</v>
       </c>
@@ -5343,31 +5386,33 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1">
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1">
         <v>20</v>
       </c>
-      <c r="W26" s="1">
+      <c r="Y26" s="1">
         <v>10</v>
       </c>
-      <c r="X26" s="1">
+      <c r="Z26" s="1">
         <v>50</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="AA26" s="1">
         <v>120</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="AB26" s="1">
         <v>125</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AC26" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AD26" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>0.91666666666666663</v>
       </c>
@@ -5389,31 +5434,33 @@
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1">
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1">
         <v>20</v>
       </c>
-      <c r="W27" s="1">
+      <c r="Y27" s="1">
         <v>10</v>
       </c>
-      <c r="X27" s="1">
+      <c r="Z27" s="1">
         <v>50</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="AA27" s="1">
         <v>120</v>
       </c>
-      <c r="Z27" s="1">
+      <c r="AB27" s="1">
         <v>125</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AC27" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AD27" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>0.95833333333333337</v>
       </c>
@@ -5435,31 +5482,33 @@
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1">
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1">
         <v>20</v>
       </c>
-      <c r="W28" s="1">
+      <c r="Y28" s="1">
         <v>10</v>
       </c>
-      <c r="X28" s="1">
+      <c r="Z28" s="1">
         <v>50</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="AA28" s="1">
         <v>120</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="AB28" s="1">
         <v>125</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AC28" s="1">
         <v>1.5</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AD28" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>20</v>
       </c>
@@ -5481,8 +5530,8 @@
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
@@ -5490,8 +5539,10 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>21</v>
       </c>
@@ -5513,8 +5564,8 @@
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
@@ -5522,8 +5573,10 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>22</v>
       </c>
@@ -5545,8 +5598,8 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
@@ -5554,8 +5607,10 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>24</v>
       </c>
@@ -5577,8 +5632,8 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
@@ -5586,8 +5641,10 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>25</v>
       </c>
@@ -5618,19 +5675,19 @@
       <c r="J33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" s="7">
         <v>250</v>
       </c>
-      <c r="L33" s="7">
+      <c r="N33" s="7">
         <v>125</v>
       </c>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="O33" s="7"/>
       <c r="P33" s="7" t="s">
         <v>26</v>
       </c>
@@ -5643,8 +5700,12 @@
       <c r="S33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
+      <c r="T33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U33" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
@@ -5652,8 +5713,10 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
@@ -5688,21 +5751,21 @@
       <c r="J34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K34" s="7">
-        <f>COUNTIF(K5:K28,"&gt;"&amp;K33)</f>
+      <c r="K34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="7">
+        <f>COUNTIF(M5:M28,"&gt;"&amp;M33)</f>
         <v>0</v>
       </c>
-      <c r="L34" s="7">
-        <f>COUNTIF(L5:L28,"&gt;"&amp;L33)</f>
+      <c r="N34" s="7">
+        <f>COUNTIF(N5:N28,"&gt;"&amp;N33)</f>
         <v>0</v>
       </c>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="O34" s="7"/>
       <c r="P34" s="7" t="s">
         <v>26</v>
       </c>
@@ -5715,8 +5778,12 @@
       <c r="S34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
+      <c r="T34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U34" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
@@ -5724,8 +5791,10 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
@@ -5760,21 +5829,21 @@
       <c r="J35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K35" s="7">
-        <f>K34/24*100</f>
+      <c r="K35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="7">
+        <f>M34/24*100</f>
         <v>0</v>
       </c>
-      <c r="L35" s="7">
-        <f>L34/24*100</f>
+      <c r="N35" s="7">
+        <f>N34/24*100</f>
         <v>0</v>
       </c>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="O35" s="7"/>
       <c r="P35" s="7" t="s">
         <v>26</v>
       </c>
@@ -5787,8 +5856,12 @@
       <c r="S35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
+      <c r="T35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U35" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
@@ -5796,31 +5869,33 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -5828,29 +5903,31 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -5858,29 +5935,31 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
@@ -5888,29 +5967,31 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -5918,29 +5999,31 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
@@ -5948,16 +6031,18 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:S40"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B36:U40"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/report_template/daily_report.xlsx
+++ b/report_template/daily_report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
   <si>
     <t>監測日報表</t>
   </si>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自動檢核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人工註記</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,7 +204,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,12 +238,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,9 +332,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4150,7 +4137,7 @@
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4162,29 +4149,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -4196,29 +4183,29 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -4230,8 +4217,8 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
@@ -4250,14 +4237,12 @@
       <c r="H3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -4266,7 +4251,6 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -4300,10 +4284,10 @@
         <v>11</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>12</v>
@@ -4312,7 +4296,7 @@
         <v>13</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>14</v>
@@ -5873,29 +5857,29 @@
       <c r="AD35" s="1"/>
     </row>
     <row r="36" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -5907,27 +5891,27 @@
       <c r="AD36" s="1"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -5939,27 +5923,27 @@
       <c r="AD37" s="1"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
@@ -5971,27 +5955,27 @@
       <c r="AD38" s="1"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -6003,27 +5987,27 @@
       <c r="AD39" s="1"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
@@ -6041,7 +6025,7 @@
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="S3:T3"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/report_template/daily_report.xlsx
+++ b/report_template/daily_report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
   <si>
     <t>監測日報表</t>
   </si>
@@ -161,6 +161,16 @@
   </si>
   <si>
     <t>氨
+ppb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOY
+ppb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3
 ppb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,7 +432,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$P$4</c:f>
+              <c:f>監測日報表!$S$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -450,7 +460,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$P$5:$P$28</c:f>
+              <c:f>監測日報表!$S$5:$S$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -485,7 +495,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$Q$4</c:f>
+              <c:f>監測日報表!$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -506,7 +516,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$Q$5:$Q$28</c:f>
+              <c:f>監測日報表!$T$5:$T$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -774,7 +784,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$X$4</c:f>
+              <c:f>監測日報表!$AA$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -796,7 +806,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$X$5:$X$28</c:f>
+              <c:f>監測日報表!$AA$5:$AA$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -903,7 +913,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$Q$4</c:f>
+              <c:f>監測日報表!$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -924,7 +934,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$Q$5:$Q$28</c:f>
+              <c:f>監測日報表!$T$5:$T$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -1192,7 +1202,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$Y$4</c:f>
+              <c:f>監測日報表!$AB$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1214,7 +1224,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$Y$5:$Y$28</c:f>
+              <c:f>監測日報表!$AB$5:$AB$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1321,7 +1331,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$Q$4</c:f>
+              <c:f>監測日報表!$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1342,7 +1352,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$Q$5:$Q$28</c:f>
+              <c:f>監測日報表!$T$5:$T$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -1610,7 +1620,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$Z$4</c:f>
+              <c:f>監測日報表!$AC$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1632,7 +1642,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$Z$5:$Z$28</c:f>
+              <c:f>監測日報表!$AC$5:$AC$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1739,7 +1749,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$Q$4</c:f>
+              <c:f>監測日報表!$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1760,7 +1770,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$Q$5:$Q$28</c:f>
+              <c:f>監測日報表!$T$5:$T$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -2028,7 +2038,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$AA$4</c:f>
+              <c:f>監測日報表!$AD$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2050,7 +2060,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$AA$5:$AA$28</c:f>
+              <c:f>監測日報表!$AD$5:$AD$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2157,7 +2167,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$Q$4</c:f>
+              <c:f>監測日報表!$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2178,7 +2188,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$Q$5:$Q$28</c:f>
+              <c:f>監測日報表!$T$5:$T$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -2411,7 +2421,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$N$4</c:f>
+              <c:f>監測日報表!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2439,7 +2449,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$N$5:$N$28</c:f>
+              <c:f>監測日報表!$Q$5:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -2458,7 +2468,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$AB$4</c:f>
+              <c:f>監測日報表!$AE$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2480,7 +2490,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$AB$5:$AB$28</c:f>
+              <c:f>監測日報表!$AE$5:$AE$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2587,7 +2597,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$Q$4</c:f>
+              <c:f>監測日報表!$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2608,7 +2618,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$Q$5:$Q$28</c:f>
+              <c:f>監測日報表!$T$5:$T$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -2876,7 +2886,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$AC$4</c:f>
+              <c:f>監測日報表!$AF$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2898,7 +2908,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$AC$5:$AC$28</c:f>
+              <c:f>監測日報表!$AF$5:$AF$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3005,7 +3015,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$Q$4</c:f>
+              <c:f>監測日報表!$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3026,7 +3036,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$Q$5:$Q$28</c:f>
+              <c:f>監測日報表!$T$5:$T$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -3244,7 +3254,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$M$4</c:f>
+              <c:f>監測日報表!$P$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3272,7 +3282,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$M$5:$M$28</c:f>
+              <c:f>監測日報表!$P$5:$P$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -3291,7 +3301,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$AD$4</c:f>
+              <c:f>監測日報表!$AG$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3313,7 +3323,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>監測日報表!$AD$5:$AD$28</c:f>
+              <c:f>監測日報表!$AG$5:$AG$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3420,7 +3430,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>監測日報表!$Q$4</c:f>
+              <c:f>監測日報表!$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3441,7 +3451,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>監測日報表!$Q$5:$Q$28</c:f>
+              <c:f>監測日報表!$T$5:$T$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ ;[Red]\-0.00\ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -3642,8 +3652,8 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -3702,8 +3712,8 @@
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3762,8 +3772,8 @@
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3822,8 +3832,8 @@
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>143</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -4134,21 +4144,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD40"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="11.125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.25" customWidth="1"/>
-    <col min="16" max="30" width="11.125" customWidth="1" collapsed="1"/>
+    <col min="1" max="11" width="11.125" customWidth="1" collapsed="1"/>
+    <col min="12" max="14" width="11.125" customWidth="1"/>
+    <col min="15" max="16" width="11.125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.25" customWidth="1"/>
+    <col min="19" max="33" width="11.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -4172,17 +4184,20 @@
       <c r="S1" s="17"/>
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -4204,19 +4219,22 @@
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="3" t="s">
@@ -4237,22 +4255,22 @@
       <c r="H3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4287,46 +4305,46 @@
         <v>38</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="s">
         <v>23</v>
       </c>
@@ -4339,8 +4357,17 @@
       <c r="AD4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="AE4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>0</v>
       </c>
@@ -4364,31 +4391,34 @@
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1">
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1">
         <v>20</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AB5" s="1">
         <v>10</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AC5" s="1">
         <v>50</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AD5" s="1">
         <v>120</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AE5" s="1">
         <v>125</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AF5" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AG5" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4412,31 +4442,34 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1">
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1">
         <v>20</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AB6" s="1">
         <v>10</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AC6" s="1">
         <v>50</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AD6" s="1">
         <v>120</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AE6" s="1">
         <v>125</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AF6" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AG6" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -4460,31 +4493,34 @@
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1">
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1">
         <v>20</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="AB7" s="1">
         <v>10</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AC7" s="1">
         <v>50</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AD7" s="1">
         <v>120</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AE7" s="1">
         <v>125</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AF7" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AG7" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>0.125</v>
       </c>
@@ -4508,31 +4544,34 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1">
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1">
         <v>20</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="AB8" s="1">
         <v>10</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AC8" s="1">
         <v>50</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AD8" s="1">
         <v>120</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AE8" s="1">
         <v>125</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AF8" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AG8" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>0.16666666666666666</v>
       </c>
@@ -4556,31 +4595,34 @@
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1">
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1">
         <v>20</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="AB9" s="1">
         <v>10</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AC9" s="1">
         <v>50</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AD9" s="1">
         <v>120</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AE9" s="1">
         <v>125</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AF9" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AG9" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>0.20833333333333334</v>
       </c>
@@ -4604,31 +4646,34 @@
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1">
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1">
         <v>20</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="AB10" s="1">
         <v>10</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AC10" s="1">
         <v>50</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AD10" s="1">
         <v>120</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AE10" s="1">
         <v>125</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AF10" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AG10" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>0.25</v>
       </c>
@@ -4652,31 +4697,34 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1">
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1">
         <v>20</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="AB11" s="1">
         <v>10</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AC11" s="1">
         <v>50</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AD11" s="1">
         <v>120</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AE11" s="1">
         <v>125</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AF11" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AG11" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>0.29166666666666669</v>
       </c>
@@ -4700,31 +4748,34 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1">
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1">
         <v>20</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="AB12" s="1">
         <v>10</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AC12" s="1">
         <v>50</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AD12" s="1">
         <v>120</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AE12" s="1">
         <v>125</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AF12" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AG12" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>0.33333333333333331</v>
       </c>
@@ -4748,31 +4799,34 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1">
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1">
         <v>20</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="AB13" s="1">
         <v>10</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AC13" s="1">
         <v>50</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AD13" s="1">
         <v>120</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AE13" s="1">
         <v>125</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AF13" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AG13" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>0.375</v>
       </c>
@@ -4796,31 +4850,34 @@
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1">
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1">
         <v>20</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="AB14" s="1">
         <v>10</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AC14" s="1">
         <v>50</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AD14" s="1">
         <v>120</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AE14" s="1">
         <v>125</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AF14" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AG14" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>0.41666666666666669</v>
       </c>
@@ -4844,31 +4901,34 @@
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1">
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1">
         <v>20</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="AB15" s="1">
         <v>10</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AC15" s="1">
         <v>50</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AD15" s="1">
         <v>120</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AE15" s="1">
         <v>125</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AF15" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AG15" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>0.45833333333333331</v>
       </c>
@@ -4892,31 +4952,34 @@
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1">
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1">
         <v>20</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="AB16" s="1">
         <v>10</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AC16" s="1">
         <v>50</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AD16" s="1">
         <v>120</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AE16" s="1">
         <v>125</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AF16" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AG16" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>0.5</v>
       </c>
@@ -4940,31 +5003,34 @@
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1">
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1">
         <v>20</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="AB17" s="1">
         <v>10</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="AC17" s="1">
         <v>50</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AD17" s="1">
         <v>120</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AE17" s="1">
         <v>125</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AF17" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AG17" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>0.54166666666666663</v>
       </c>
@@ -4988,31 +5054,34 @@
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1">
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1">
         <v>20</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="AB18" s="1">
         <v>10</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="AC18" s="1">
         <v>50</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AD18" s="1">
         <v>120</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AE18" s="1">
         <v>125</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AF18" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AG18" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -5036,31 +5105,34 @@
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1">
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1">
         <v>20</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="AB19" s="1">
         <v>10</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AC19" s="1">
         <v>50</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AD19" s="1">
         <v>120</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AE19" s="1">
         <v>125</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AF19" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AG19" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>0.625</v>
       </c>
@@ -5084,31 +5156,34 @@
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1">
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1">
         <v>20</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="AB20" s="1">
         <v>10</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="AC20" s="1">
         <v>50</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AD20" s="1">
         <v>120</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AE20" s="1">
         <v>125</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AF20" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AG20" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>0.66666666666666663</v>
       </c>
@@ -5132,31 +5207,34 @@
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1">
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1">
         <v>20</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="AB21" s="1">
         <v>10</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="AC21" s="1">
         <v>50</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AD21" s="1">
         <v>120</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AE21" s="1">
         <v>125</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AF21" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AG21" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>0.70833333333333337</v>
       </c>
@@ -5180,31 +5258,34 @@
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1">
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1">
         <v>20</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="AB22" s="1">
         <v>10</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AC22" s="1">
         <v>50</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AD22" s="1">
         <v>120</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AE22" s="1">
         <v>125</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AF22" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AG22" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>0.75</v>
       </c>
@@ -5228,31 +5309,34 @@
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1">
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1">
         <v>20</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="AB23" s="1">
         <v>10</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="AC23" s="1">
         <v>50</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AD23" s="1">
         <v>120</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AE23" s="1">
         <v>125</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AF23" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AG23" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>0.79166666666666663</v>
       </c>
@@ -5276,31 +5360,34 @@
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1">
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1">
         <v>20</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="AB24" s="1">
         <v>10</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="AC24" s="1">
         <v>50</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AD24" s="1">
         <v>120</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AE24" s="1">
         <v>125</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AF24" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AG24" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>0.83333333333333337</v>
       </c>
@@ -5324,31 +5411,34 @@
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1">
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1">
         <v>20</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="AB25" s="1">
         <v>10</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AC25" s="1">
         <v>50</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AD25" s="1">
         <v>120</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AE25" s="1">
         <v>125</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AF25" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="AG25" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>0.875</v>
       </c>
@@ -5372,31 +5462,34 @@
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1">
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1">
         <v>20</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="AB26" s="1">
         <v>10</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="AC26" s="1">
         <v>50</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AD26" s="1">
         <v>120</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AE26" s="1">
         <v>125</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AF26" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD26" s="1">
+      <c r="AG26" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>0.91666666666666663</v>
       </c>
@@ -5420,31 +5513,34 @@
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1">
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1">
         <v>20</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="AB27" s="1">
         <v>10</v>
       </c>
-      <c r="Z27" s="1">
+      <c r="AC27" s="1">
         <v>50</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AD27" s="1">
         <v>120</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AE27" s="1">
         <v>125</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AF27" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD27" s="1">
+      <c r="AG27" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>0.95833333333333337</v>
       </c>
@@ -5468,31 +5564,34 @@
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1">
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1">
         <v>20</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="AB28" s="1">
         <v>10</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="AC28" s="1">
         <v>50</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AD28" s="1">
         <v>120</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AE28" s="1">
         <v>125</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AF28" s="1">
         <v>1.5</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AG28" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>20</v>
       </c>
@@ -5516,17 +5615,20 @@
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>21</v>
       </c>
@@ -5550,17 +5652,20 @@
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>22</v>
       </c>
@@ -5584,17 +5689,20 @@
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
     </row>
-    <row r="32" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>24</v>
       </c>
@@ -5618,17 +5726,20 @@
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
     </row>
-    <row r="33" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>25</v>
       </c>
@@ -5665,22 +5776,22 @@
       <c r="L33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" s="7">
         <v>250</v>
       </c>
-      <c r="N33" s="7">
+      <c r="Q33" s="7">
         <v>125</v>
       </c>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R33" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="R33" s="7"/>
       <c r="S33" s="7" t="s">
         <v>26</v>
       </c>
@@ -5690,17 +5801,26 @@
       <c r="U33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
+      <c r="V33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X33" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
     </row>
-    <row r="34" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
@@ -5741,24 +5861,24 @@
       <c r="L34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M34" s="7">
-        <f>COUNTIF(M5:M28,"&gt;"&amp;M33)</f>
+      <c r="M34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" s="7">
+        <f>COUNTIF(P5:P28,"&gt;"&amp;P33)</f>
         <v>0</v>
       </c>
-      <c r="N34" s="7">
-        <f>COUNTIF(N5:N28,"&gt;"&amp;N33)</f>
+      <c r="Q34" s="7">
+        <f>COUNTIF(Q5:Q28,"&gt;"&amp;Q33)</f>
         <v>0</v>
       </c>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R34" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="R34" s="7"/>
       <c r="S34" s="7" t="s">
         <v>26</v>
       </c>
@@ -5768,17 +5888,26 @@
       <c r="U34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
+      <c r="V34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X34" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
     </row>
-    <row r="35" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
@@ -5819,24 +5948,24 @@
       <c r="L35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="7">
-        <f>M34/24*100</f>
+      <c r="M35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" s="7">
+        <f>P34/24*100</f>
         <v>0</v>
       </c>
-      <c r="N35" s="7">
-        <f>N34/24*100</f>
+      <c r="Q35" s="7">
+        <f>Q34/24*100</f>
         <v>0</v>
       </c>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R35" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="R35" s="7"/>
       <c r="S35" s="7" t="s">
         <v>26</v>
       </c>
@@ -5846,17 +5975,26 @@
       <c r="U35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
+      <c r="V35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X35" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
     </row>
-    <row r="36" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>29</v>
       </c>
@@ -5880,17 +6018,20 @@
       <c r="S36" s="16"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -5912,17 +6053,20 @@
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -5944,17 +6088,20 @@
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -5976,17 +6123,20 @@
       <c r="S39" s="16"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -6008,24 +6158,27 @@
       <c r="S40" s="16"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:U40"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="B36:X40"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="V3:W3"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
